--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\Datas\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6B8E92-9F6D-4C26-AD53-0F14B78C5966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BDC2D-A590-4D61-BB57-80BBF99C4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -170,6 +170,26 @@
   </si>
   <si>
     <t>飞行轨迹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行速度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间(s)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -578,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -590,10 +610,10 @@
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="8" width="13.77734375" customWidth="1"/>
+    <col min="6" max="10" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -612,10 +632,14 @@
         <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1"/>
-      <c r="J1"/>
       <c r="K1"/>
       <c r="L1"/>
       <c r="M1"/>
@@ -631,8 +655,10 @@
       <c r="W1"/>
       <c r="X1"/>
       <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
     </row>
-    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -643,8 +669,8 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -660,8 +686,10 @@
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -680,10 +708,14 @@
         <v>17</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -699,8 +731,10 @@
       <c r="W3"/>
       <c r="X3"/>
       <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -713,8 +747,8 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
-      <c r="I4"/>
-      <c r="J4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
       <c r="K4"/>
       <c r="L4"/>
       <c r="M4"/>
@@ -730,8 +764,10 @@
       <c r="W4"/>
       <c r="X4"/>
       <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
     </row>
-    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -750,10 +786,14 @@
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -769,8 +809,10 @@
       <c r="W5"/>
       <c r="X5"/>
       <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
@@ -788,11 +830,17 @@
       <c r="G6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="8">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>5</v>
+      </c>
+      <c r="J6" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>15</v>
       </c>
@@ -810,7 +858,13 @@
       <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="8">
+        <v>3</v>
+      </c>
+      <c r="I7" s="8">
+        <v>5</v>
+      </c>
+      <c r="J7" s="8" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8BDC2D-A590-4D61-BB57-80BBF99C4CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59A4B6F-94E0-4EB1-91A8-D28CDF77A11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>res_id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>资源id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -173,23 +169,78 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>speed</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>飞行速度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>duration</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>持续时间(s)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>nodeName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这个挂载点对应位置生成</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offSetPosition</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂载点的相对偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relateForward</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对发送者的面向偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>vector3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTweenType</t>
+  </si>
+  <si>
+    <t>$type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>StraightMoveTweenType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackingMoveTweenType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行轨迹参数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,3,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bullet_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +295,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -265,7 +323,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -297,6 +355,32 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -309,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -321,6 +405,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -598,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -610,10 +708,10 @@
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="10" width="13.77734375" customWidth="1"/>
+    <col min="6" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -629,20 +727,24 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
+        <v>27</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="10"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -657,8 +759,11 @@
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,9 +776,13 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>34</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -688,8 +797,11 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -705,20 +817,24 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
+        <v>31</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="12"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -733,8 +849,11 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -749,9 +868,9 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -766,8 +885,11 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -783,20 +905,26 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
+        <v>28</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -811,10 +939,13 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -824,25 +955,28 @@
         <v>FireBullet_1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="8">
-        <v>3</v>
-      </c>
-      <c r="I6" s="8">
-        <v>5</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>18</v>
+        <v>50</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -852,23 +986,30 @@
         <v>FireBullet_2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="8">
-        <v>3</v>
-      </c>
-      <c r="I7" s="8">
-        <v>5</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>20</v>
+        <v>50</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59A4B6F-94E0-4EB1-91A8-D28CDF77A11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6161BB70-D876-4EA9-B427-EC4F0368A7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,15 +232,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,0,3,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>bullet_id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0,3,0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -405,6 +405,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,8 +419,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -699,7 +699,7 @@
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>23</v>
@@ -741,10 +741,10 @@
       <c r="K1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="10"/>
+      <c r="M1" s="12"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -777,10 +777,10 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="10" t="s">
         <v>34</v>
       </c>
       <c r="N2"/>
@@ -831,10 +831,10 @@
       <c r="K3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="12"/>
+      <c r="M3" s="14"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -971,7 +971,7 @@
         <v>35</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>36</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6161BB70-D876-4EA9-B427-EC4F0368A7B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5751D3-DC56-4123-AF01-04487A40C0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,0,3,0</t>
+    <t>2,0,25,0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5751D3-DC56-4123-AF01-04487A40C0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF60870-F2BE-45AF-9919-D67221C39426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -240,7 +240,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,0,25,0</t>
+    <t>2,0,50,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出子弹3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -696,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AD8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1013,37 @@
         <v>40</v>
       </c>
     </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <f>B8&amp;"_"&amp;C8</f>
+        <v>FireBullet_3</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8">
+        <v>50</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="L1:M1"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\X-ET7\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF60870-F2BE-45AF-9919-D67221C39426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7072B9-2586-4053-8714-6AC9A38D8352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1920" windowWidth="23040" windowHeight="9144" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -136,10 +136,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>资源id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FireBullet</t>
   </si>
   <si>
@@ -185,27 +181,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>从这个挂载点对应位置生成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>offSetPosition</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>挂载点的相对偏移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>relateForward</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>相对发送者的面向偏移</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>vector3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -236,19 +216,66 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0,50,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Bullet_3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>射出子弹3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>offSetInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>节点名</t>
+  </si>
+  <si>
+    <t>相对偏移</t>
+  </si>
+  <si>
+    <t>相对旋转</t>
+  </si>
+  <si>
+    <t>OffSetInfo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出子弹4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetMoveTweenType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>AroundMoveTweenType</t>
+  </si>
+  <si>
+    <t>Bullet_RocketProjectile_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RocketProjectile_1</t>
+  </si>
+  <si>
+    <t>30;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;0;50</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20;0;0;5;1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -383,6 +410,17 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -401,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
@@ -425,6 +463,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -704,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -716,10 +760,12 @@
     <col min="3" max="3" width="11.21875" customWidth="1"/>
     <col min="4" max="4" width="17.109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="13" width="13.77734375" customWidth="1"/>
+    <col min="6" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -735,22 +781,18 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="12"/>
       <c r="L1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1"/>
@@ -767,11 +809,8 @@
       <c r="Y1"/>
       <c r="Z1"/>
       <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -782,14 +821,20 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="L2" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N2"/>
       <c r="O2"/>
@@ -805,11 +850,8 @@
       <c r="Y2"/>
       <c r="Z2"/>
       <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -825,22 +867,18 @@
         <v>5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>31</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="14"/>
       <c r="L3" s="13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M3" s="14"/>
       <c r="N3"/>
@@ -857,11 +895,8 @@
       <c r="Y3"/>
       <c r="Z3"/>
       <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -893,11 +928,8 @@
       <c r="Y4"/>
       <c r="Z4"/>
       <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -913,25 +945,25 @@
         <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N5"/>
       <c r="O5"/>
@@ -947,27 +979,24 @@
       <c r="Y5"/>
       <c r="Z5"/>
       <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f>B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D11" si="0">B6&amp;"_"&amp;C6</f>
         <v>FireBullet_1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" s="8">
         <v>50</v>
@@ -976,29 +1005,29 @@
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="str">
-        <f>B7&amp;"_"&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>FireBullet_2</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H7" s="8">
         <v>50</v>
@@ -1007,47 +1036,130 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M7" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="str">
-        <f>B8&amp;"_"&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>FireBullet_3</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="8" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H8" s="8">
         <v>50</v>
       </c>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
       <c r="L8" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>FireBullet_4</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="8">
+        <v>50</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>FireBullet_5</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="8">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>FireBullet_RocketProjectile_1</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="8">
+        <v>50</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7072B9-2586-4053-8714-6AC9A38D8352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A3183-DDE2-4AD9-9AFB-5A14FDA7860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
   <si>
     <t>##var</t>
   </si>
@@ -277,6 +266,40 @@
   <si>
     <t>20;0;0;5;1</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>机枪子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌人子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerSolo1</t>
+  </si>
+  <si>
+    <t>PlayerAoe1</t>
+  </si>
+  <si>
+    <t>EnemySolo1</t>
+  </si>
+  <si>
+    <t>50;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_PlayerSolo1</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerAoe1</t>
+  </si>
+  <si>
+    <t>Bullet_EnemySolo1</t>
   </si>
 </sst>
 </file>
@@ -748,24 +771,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="19.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="19.125" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -810,7 +835,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,7 +876,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -896,7 +921,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -929,7 +954,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -980,7 +1005,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
@@ -988,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D11" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D14" si="0">B6&amp;"_"&amp;C6</f>
         <v>FireBullet_1</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1011,7 +1036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
@@ -1042,7 +1067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
@@ -1070,7 +1095,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1098,7 +1123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" s="6" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1152,6 +1177,87 @@
       </c>
       <c r="M11" s="8" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>FireBullet_PlayerSolo1</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="8">
+        <v>10</v>
+      </c>
+      <c r="L12" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>FireBullet_PlayerAoe1</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="8">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>FireBullet_EnemySolo1</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="8">
+        <v>10</v>
+      </c>
+      <c r="L14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A3183-DDE2-4AD9-9AFB-5A14FDA7860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094EDE60-420A-4F17-939E-ACF921897584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>##var</t>
   </si>
@@ -300,6 +300,164 @@
   </si>
   <si>
     <t>Bullet_EnemySolo1</t>
+  </si>
+  <si>
+    <t>射出加农炮1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Cannon_Bullet_1</t>
+  </si>
+  <si>
+    <t>Bullet_Tower_Cannon_Bullet_1</t>
+  </si>
+  <si>
+    <t>TargetMoveTweenType</t>
+  </si>
+  <si>
+    <t>射出弩箭1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_Arrow_Bullet_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Tower_Arrow_Bullet_1</t>
+  </si>
+  <si>
+    <t>Tower_Arrow_Bullet_2</t>
+  </si>
+  <si>
+    <t>Tower_Arrow_Bullet_3</t>
+  </si>
+  <si>
+    <t>射出弩箭2</t>
+  </si>
+  <si>
+    <t>射出弩箭3</t>
+  </si>
+  <si>
+    <t>Bullet_Tower_Arrow_Bullet_2</t>
+  </si>
+  <si>
+    <t>Bullet_Tower_Arrow_Bullet_3</t>
+  </si>
+  <si>
+    <t>Tower_Cannon_Bullet_2</t>
+  </si>
+  <si>
+    <t>Tower_Cannon_Bullet_3</t>
+  </si>
+  <si>
+    <t>射出加农炮2</t>
+  </si>
+  <si>
+    <t>射出加农炮3</t>
+  </si>
+  <si>
+    <t>Bullet_Tower_Cannon_Bullet_2</t>
+  </si>
+  <si>
+    <t>Bullet_Tower_Cannon_Bullet_3</t>
+  </si>
+  <si>
+    <t>0,1.74,0.88</t>
+  </si>
+  <si>
+    <t>0,2.1,0.9</t>
+  </si>
+  <si>
+    <t>0,2.5,0.9</t>
+  </si>
+  <si>
+    <t>0,1.77,0.6</t>
+  </si>
+  <si>
+    <t>0,1.9,0.9</t>
+  </si>
+  <si>
+    <t>0,2.46,0.9</t>
+  </si>
+  <si>
+    <t>射出龙击炮1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出龙击炮2</t>
+  </si>
+  <si>
+    <t>射出龙击炮3</t>
+  </si>
+  <si>
+    <t>射出冰魔塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>射出冰魔塔2</t>
+  </si>
+  <si>
+    <t>射出冰魔塔3</t>
+  </si>
+  <si>
+    <t>0,1.244,0.572</t>
+  </si>
+  <si>
+    <t>0,1.845,0.322</t>
+  </si>
+  <si>
+    <t>0,2.272,0.39</t>
+  </si>
+  <si>
+    <t>0,2.625,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3.193,0.1419</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3.451,0.15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_TowerDragon_Bullet1</t>
+  </si>
+  <si>
+    <t>Bullet_TowerDragon_Bullet2</t>
+  </si>
+  <si>
+    <t>Bullet_TowerDragon_Bullet3</t>
+  </si>
+  <si>
+    <t>Bullet_TowerIce_Bullet1</t>
+  </si>
+  <si>
+    <t>Bullet_TowerIce_Bullet2</t>
+  </si>
+  <si>
+    <t>Bullet_TowerIce_Bullet3</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet1</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet2</t>
+  </si>
+  <si>
+    <t>TowerDragon_Bullet3</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet1</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet2</t>
+  </si>
+  <si>
+    <t>TowerIce_Bullet3</t>
+  </si>
+  <si>
+    <t>20;0</t>
   </si>
 </sst>
 </file>
@@ -771,22 +929,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.25" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="13.75" customWidth="1"/>
     <col min="7" max="7" width="26.75" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
     <col min="13" max="13" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,7 +1171,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ref="D6:D14" si="0">B6&amp;"_"&amp;C6</f>
+        <f t="shared" ref="D6:D18" si="0">B6&amp;"_"&amp;C6</f>
         <v>FireBullet_1</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1253,11 +1411,371 @@
       <c r="H14" s="8">
         <v>10</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M14" s="8" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ref="D15" si="1">B15&amp;"_"&amp;C15</f>
+        <v>FireBullet_Tower_Arrow_Bullet_1</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ref="D16" si="2">B16&amp;"_"&amp;C16</f>
+        <v>FireBullet_Tower_Arrow_Bullet_2</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="8">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17" si="3">B17&amp;"_"&amp;C17</f>
+        <v>FireBullet_Tower_Arrow_Bullet_3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="8">
+        <v>10</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>FireBullet_Tower_Cannon_Bullet_1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="8">
+        <v>10</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ref="D19:D26" si="4">B19&amp;"_"&amp;C19</f>
+        <v>FireBullet_Tower_Cannon_Bullet_2</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="4"/>
+        <v>FireBullet_Tower_Cannon_Bullet_3</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="8">
+        <v>10</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="4"/>
+        <v>FireBullet_TowerDragon_Bullet1</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="8">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="4"/>
+        <v>FireBullet_TowerDragon_Bullet2</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="8">
+        <v>10</v>
+      </c>
+      <c r="J22" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="4"/>
+        <v>FireBullet_TowerDragon_Bullet3</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H23" s="8">
+        <v>10</v>
+      </c>
+      <c r="J23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="4"/>
+        <v>FireBullet_TowerIce_Bullet1</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H24" s="8">
+        <v>10</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="4"/>
+        <v>FireBullet_TowerIce_Bullet2</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="8">
+        <v>10</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="4"/>
+        <v>FireBullet_TowerIce_Bullet3</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" s="8">
+        <v>10</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D7A5DC-B553-4CFC-A5AE-30EDD9995A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A511DD-B9F0-468B-BE02-1E6ECA6EE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="256">
   <si>
     <t>##var</t>
   </si>
@@ -844,31 +833,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;30;0</t>
-  </si>
-  <si>
     <t>0;2;0;50</t>
   </si>
   <si>
-    <t>0;20;0</t>
-  </si>
-  <si>
-    <t>0;20;0;0;5;1</t>
-  </si>
-  <si>
     <t>0;50;0</t>
-  </si>
-  <si>
-    <t>0.2;20;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0.017,1.58,0.3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.1;20;0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>0;37;0</t>
+  </si>
+  <si>
+    <t>0;37;0;0;5;1</t>
+  </si>
+  <si>
+    <t>0.1;37;0</t>
+  </si>
+  <si>
+    <t>0.2;37;0</t>
   </si>
 </sst>
 </file>
@@ -1329,24 +1313,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="32.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1375,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1416,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1461,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +1494,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1561,7 +1545,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -1588,10 +1572,10 @@
         <v>35</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -1618,10 +1602,10 @@
         <v>38</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -1645,10 +1629,10 @@
         <v>38</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1672,10 +1656,10 @@
         <v>42</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -1699,10 +1683,10 @@
         <v>43</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -1726,10 +1710,10 @@
         <v>42</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -1753,10 +1737,10 @@
         <v>35</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1780,10 +1764,10 @@
         <v>35</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -1807,10 +1791,10 @@
         <v>248</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1837,10 +1821,10 @@
         <v>42</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1867,10 +1851,10 @@
         <v>42</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1897,10 +1881,10 @@
         <v>42</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1927,10 +1911,10 @@
         <v>42</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1957,10 +1941,10 @@
         <v>42</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1987,10 +1971,10 @@
         <v>42</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -2017,10 +2001,10 @@
         <v>42</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -2047,10 +2031,10 @@
         <v>42</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -2077,10 +2061,10 @@
         <v>42</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -2107,10 +2091,10 @@
         <v>42</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -2137,10 +2121,10 @@
         <v>42</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -2167,10 +2151,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -2196,10 +2180,10 @@
         <v>42</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -2225,10 +2209,10 @@
         <v>42</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -2254,10 +2238,10 @@
         <v>42</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2283,10 +2267,10 @@
         <v>42</v>
       </c>
       <c r="M30" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2312,10 +2296,10 @@
         <v>42</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -2341,10 +2325,10 @@
         <v>42</v>
       </c>
       <c r="M32" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -2370,10 +2354,10 @@
         <v>42</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -2399,10 +2383,10 @@
         <v>42</v>
       </c>
       <c r="M34" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2428,10 +2412,10 @@
         <v>42</v>
       </c>
       <c r="M35" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>32</v>
       </c>
@@ -2457,10 +2441,10 @@
         <v>42</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -2486,10 +2470,10 @@
         <v>42</v>
       </c>
       <c r="M37" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -2515,10 +2499,10 @@
         <v>42</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>32</v>
       </c>
@@ -2544,10 +2528,10 @@
         <v>42</v>
       </c>
       <c r="M39" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>32</v>
       </c>
@@ -2573,10 +2557,10 @@
         <v>42</v>
       </c>
       <c r="M40" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -2602,10 +2586,10 @@
         <v>42</v>
       </c>
       <c r="M41" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>32</v>
       </c>
@@ -2631,10 +2615,10 @@
         <v>42</v>
       </c>
       <c r="M42" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>32</v>
       </c>
@@ -2660,10 +2644,10 @@
         <v>42</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>32</v>
       </c>
@@ -2689,10 +2673,10 @@
         <v>42</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>32</v>
       </c>
@@ -2718,10 +2702,10 @@
         <v>42</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>32</v>
       </c>
@@ -2747,10 +2731,10 @@
         <v>42</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>32</v>
       </c>
@@ -2776,10 +2760,10 @@
         <v>42</v>
       </c>
       <c r="M47" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>32</v>
       </c>
@@ -2799,16 +2783,16 @@
         <v>10</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L48" s="6" t="s">
         <v>42</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>32</v>
       </c>
@@ -2834,10 +2818,10 @@
         <v>42</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>32</v>
       </c>
@@ -2863,10 +2847,10 @@
         <v>42</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>32</v>
       </c>
@@ -2892,10 +2876,10 @@
         <v>42</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>32</v>
       </c>
@@ -2921,10 +2905,10 @@
         <v>42</v>
       </c>
       <c r="M52" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -2950,10 +2934,10 @@
         <v>42</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2979,10 +2963,10 @@
         <v>42</v>
       </c>
       <c r="M54" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>32</v>
       </c>
@@ -3008,10 +2992,10 @@
         <v>42</v>
       </c>
       <c r="M55" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>32</v>
       </c>
@@ -3037,10 +3021,10 @@
         <v>42</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
       <c r="H59" s="6"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -5,22 +5,33 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A511DD-B9F0-468B-BE02-1E6ECA6EE98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44CE3F9-117A-4863-9C29-E3705284794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="257">
   <si>
     <t>##var</t>
   </si>
@@ -849,10 +860,15 @@
     <t>0;37;0;0;5;1</t>
   </si>
   <si>
-    <t>0.1;37;0</t>
-  </si>
-  <si>
     <t>0.2;37;0</t>
+  </si>
+  <si>
+    <t>0;20;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2;37;0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1313,24 +1329,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.25" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="1" max="2" width="9.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="26.75" customWidth="1"/>
-    <col min="8" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="32.125" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="26.77734375" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="32.109375" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1391,7 @@
       <c r="Z1"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1432,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1461,7 +1477,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
@@ -1494,7 +1510,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>21</v>
       </c>
@@ -1545,7 +1561,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -1575,7 +1591,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -1605,7 +1621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>32</v>
       </c>
@@ -1632,7 +1648,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1659,7 +1675,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -1686,7 +1702,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -1713,7 +1729,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -1740,7 +1756,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1767,7 +1783,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -1794,7 +1810,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1824,7 +1840,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1854,7 +1870,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1884,7 +1900,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1914,7 +1930,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>32</v>
       </c>
@@ -1944,7 +1960,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1974,7 +1990,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -2001,10 +2017,10 @@
         <v>42</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -2031,10 +2047,10 @@
         <v>42</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -2061,10 +2077,10 @@
         <v>42</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -2091,10 +2107,10 @@
         <v>42</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -2121,10 +2137,10 @@
         <v>42</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>32</v>
       </c>
@@ -2151,10 +2167,10 @@
         <v>42</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -2180,10 +2196,10 @@
         <v>42</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>32</v>
       </c>
@@ -2209,10 +2225,10 @@
         <v>42</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -2238,10 +2254,10 @@
         <v>42</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>32</v>
       </c>
@@ -2270,7 +2286,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>32</v>
       </c>
@@ -2299,7 +2315,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>32</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>32</v>
       </c>
@@ -2357,7 +2373,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
@@ -2386,7 +2402,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -2415,7 +2431,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>32</v>
       </c>
@@ -2444,7 +2460,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>32</v>
       </c>
@@ -2473,7 +2489,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>32</v>
       </c>
@@ -2502,7 +2518,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>32</v>
       </c>
@@ -2531,7 +2547,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2576,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>32</v>
       </c>
@@ -2589,7 +2605,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>32</v>
       </c>
@@ -2618,7 +2634,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>32</v>
       </c>
@@ -2647,7 +2663,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>32</v>
       </c>
@@ -2676,7 +2692,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>32</v>
       </c>
@@ -2705,7 +2721,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>32</v>
       </c>
@@ -2734,7 +2750,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>32</v>
       </c>
@@ -2763,7 +2779,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>32</v>
       </c>
@@ -2792,7 +2808,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>32</v>
       </c>
@@ -2821,7 +2837,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>32</v>
       </c>
@@ -2850,7 +2866,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>32</v>
       </c>
@@ -2879,7 +2895,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>32</v>
       </c>
@@ -2908,7 +2924,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>32</v>
       </c>
@@ -2937,7 +2953,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>32</v>
       </c>
@@ -2966,7 +2982,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>32</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>32</v>
       </c>
@@ -3024,7 +3040,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="H59" s="6"/>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44CE3F9-117A-4863-9C29-E3705284794C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE5C45-7D08-45A9-A52C-670DFCCD71D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="249">
   <si>
     <t>##var</t>
   </si>
@@ -96,9 +96,6 @@
     <t>offSetInfo</t>
   </si>
   <si>
-    <t>moveType</t>
-  </si>
-  <si>
     <t>nodeName</t>
   </si>
   <si>
@@ -108,28 +105,16 @@
     <t>relateForward</t>
   </si>
   <si>
-    <t>$type</t>
-  </si>
-  <si>
-    <t>$value</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>string#ref=BulletCfgCategory</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
     <t>OffSetInfo</t>
-  </si>
-  <si>
-    <t>MoveTweenType</t>
   </si>
   <si>
     <t>##group</t>
@@ -189,9 +174,6 @@
     <t>飞行轨迹</t>
   </si>
   <si>
-    <t>飞行轨迹参数</t>
-  </si>
-  <si>
     <t>FireBullet</t>
   </si>
   <si>
@@ -201,18 +183,12 @@
     <t>Bullet_1</t>
   </si>
   <si>
-    <t>StraightMoveTweenType</t>
-  </si>
-  <si>
     <t>射出子弹2</t>
   </si>
   <si>
     <t>Bullet_2</t>
   </si>
   <si>
-    <t>TrackingMoveTweenType</t>
-  </si>
-  <si>
     <t>射出子弹3</t>
   </si>
   <si>
@@ -222,12 +198,6 @@
     <t>射出子弹4</t>
   </si>
   <si>
-    <t>TargetMoveTweenType</t>
-  </si>
-  <si>
-    <t>AroundMoveTweenType</t>
-  </si>
-  <si>
     <t>RocketProjectile_1</t>
   </si>
   <si>
@@ -838,37 +808,43 @@
   </si>
   <si>
     <t>0,2.7,1.9</t>
-  </si>
-  <si>
-    <t>StraightMoveTweenType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0;2;0;50</t>
-  </si>
-  <si>
-    <t>0;50;0</t>
   </si>
   <si>
     <t>0.017,1.58,0.3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0;37;0</t>
-  </si>
-  <si>
-    <t>0;37;0;0;5;1</t>
-  </si>
-  <si>
-    <t>0.2;37;0</t>
-  </si>
-  <si>
-    <t>0;20;0</t>
+    <t>string#ref=BulletCfgCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0.2;37;0</t>
+    <t>string#ref=MoveTweenCfgCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveTweenId</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_37</t>
+  </si>
+  <si>
+    <t>MoveTween_Tracking_2_50</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_37</t>
+  </si>
+  <si>
+    <t>MoveTween_Around_37</t>
+  </si>
+  <si>
+    <t>MoveTween_Straight_50</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_20</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_37_0.2</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +1003,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA59"/>
+  <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1343,10 +1321,9 @@
     <col min="7" max="7" width="26.77734375" customWidth="1"/>
     <col min="8" max="11" width="13.77734375" customWidth="1"/>
     <col min="12" max="12" width="32.109375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,10 +1349,10 @@
       </c>
       <c r="J1" s="12"/>
       <c r="K1" s="13"/>
-      <c r="L1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="13"/>
+      <c r="L1" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -1389,9 +1366,8 @@
       <c r="X1"/>
       <c r="Y1"/>
       <c r="Z1"/>
-      <c r="AA1"/>
-    </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1403,20 +1379,16 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="L2" s="7"/>
+      <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
       <c r="P2"/>
@@ -1430,38 +1402,37 @@
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3" s="15"/>
       <c r="K3" s="16"/>
-      <c r="L3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="16"/>
+      <c r="L3" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
@@ -1475,18 +1446,17 @@
       <c r="X3"/>
       <c r="Y3"/>
       <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1494,7 +1464,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
@@ -1508,44 +1478,41 @@
       <c r="X4"/>
       <c r="Y4"/>
       <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
@@ -1559,11 +1526,10 @@
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1573,10 +1539,10 @@
         <v>FireBullet_1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" s="6">
         <v>50</v>
@@ -1585,15 +1551,12 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1603,10 +1566,10 @@
         <v>FireBullet_2</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H7" s="6">
         <v>50</v>
@@ -1615,15 +1578,12 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1633,24 +1593,21 @@
         <v>FireBullet_3</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H8" s="6">
         <v>50</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1660,24 +1617,21 @@
         <v>FireBullet_4</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H9" s="6">
         <v>50</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -1687,1368 +1641,1225 @@
         <v>FireBullet_5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H10" s="6">
         <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
         <v>FireBullet_RocketProjectile_1</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="H11" s="6">
         <v>50</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>FireBullet_PlayerSolo1</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H12" s="6">
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>FireBullet_PlayerAoe1</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H13" s="6">
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>FireBullet_EnemySolo1</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H14" s="6">
         <v>10</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="L14" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" ref="D15" si="1">B15&amp;"_"&amp;C15</f>
         <v>FireBullet_Tower_Arrow_Bullet_1</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="H15" s="6">
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" ref="D16" si="2">B16&amp;"_"&amp;C16</f>
         <v>FireBullet_Tower_Arrow_Bullet_2</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H16" s="6">
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" ref="D17" si="3">B17&amp;"_"&amp;C17</f>
         <v>FireBullet_Tower_Arrow_Bullet_3</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H17" s="6">
         <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>FireBullet_Tower_Cannon_Bullet_1</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H18" s="6">
         <v>10</v>
       </c>
       <c r="J18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" ref="D19:D26" si="4">B19&amp;"_"&amp;C19</f>
         <v>FireBullet_Tower_Cannon_Bullet_2</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H19" s="6">
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="4"/>
         <v>FireBullet_Tower_Cannon_Bullet_3</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="H20" s="6">
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="4"/>
         <v>FireBullet_TowerDragon_Bullet1</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G21" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H21" s="6">
         <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="4"/>
         <v>FireBullet_TowerDragon_Bullet2</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G22" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="H22" s="6">
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="4"/>
         <v>FireBullet_TowerDragon_Bullet3</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H23" s="6">
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="10" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="4"/>
         <v>FireBullet_TowerIce_Bullet1</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G24" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H24" s="6">
         <v>10</v>
       </c>
       <c r="J24" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="4"/>
         <v>FireBullet_TowerIce_Bullet2</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H25" s="6">
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="4"/>
         <v>FireBullet_TowerIce_Bullet3</v>
       </c>
       <c r="E26" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="6">
+        <v>10</v>
+      </c>
+      <c r="J26" t="s">
+        <v>92</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" s="6">
+        <v>10</v>
+      </c>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" t="s">
         <v>100</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H28" s="6">
+        <v>10</v>
+      </c>
+      <c r="J28" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="6">
-        <v>10</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="D29" t="s">
         <v>102</v>
       </c>
-      <c r="L26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="E29" t="s">
         <v>103</v>
       </c>
-      <c r="D27" t="s">
+      <c r="G29" t="s">
         <v>104</v>
       </c>
-      <c r="E27" t="s">
+      <c r="H29" s="6">
+        <v>10</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
         <v>105</v>
       </c>
-      <c r="G27" t="s">
+      <c r="D30" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="6">
-        <v>10</v>
-      </c>
-      <c r="J27" t="s">
-        <v>70</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E30" t="s">
         <v>107</v>
       </c>
-      <c r="D28" t="s">
+      <c r="G30" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s">
+      <c r="H30" s="6">
+        <v>10</v>
+      </c>
+      <c r="J30" t="s">
         <v>109</v>
       </c>
-      <c r="G28" t="s">
+      <c r="L30" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="6">
-        <v>10</v>
-      </c>
-      <c r="J28" t="s">
-        <v>70</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D31" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E31" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G31" t="s">
         <v>113</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H31" s="6">
+        <v>10</v>
+      </c>
+      <c r="J31" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="6">
-        <v>10</v>
-      </c>
-      <c r="J29" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="L31" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
         <v>115</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>116</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E32" t="s">
         <v>117</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G32" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="6">
-        <v>10</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="H32" s="6">
+        <v>10</v>
+      </c>
+      <c r="J32" t="s">
         <v>119</v>
       </c>
-      <c r="L30" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="L32" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D33" t="s">
         <v>121</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E33" t="s">
         <v>122</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G33" t="s">
         <v>123</v>
       </c>
-      <c r="H31" s="6">
-        <v>10</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H33" s="6">
+        <v>10</v>
+      </c>
+      <c r="J33" t="s">
         <v>124</v>
       </c>
-      <c r="L31" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="L33" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
         <v>125</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>126</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E34" t="s">
         <v>127</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G34" t="s">
         <v>128</v>
       </c>
-      <c r="H32" s="6">
-        <v>10</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="H34" s="6">
+        <v>10</v>
+      </c>
+      <c r="J34" t="s">
         <v>129</v>
       </c>
-      <c r="L32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="L34" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
         <v>130</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>131</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E35" t="s">
         <v>132</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G35" t="s">
         <v>133</v>
       </c>
-      <c r="H33" s="6">
-        <v>10</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="H35" s="6">
+        <v>10</v>
+      </c>
+      <c r="J35" t="s">
         <v>134</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="L35" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
         <v>135</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>136</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E36" t="s">
         <v>137</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G36" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="6">
-        <v>10</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="H36" s="6">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
         <v>139</v>
       </c>
-      <c r="L34" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="L36" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
         <v>140</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>141</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" t="s">
         <v>142</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G37" t="s">
         <v>143</v>
       </c>
-      <c r="H35" s="6">
-        <v>10</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="H37" s="6">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
         <v>144</v>
       </c>
-      <c r="L35" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="L37" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" t="s">
         <v>145</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>146</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E38" t="s">
         <v>147</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G38" t="s">
         <v>148</v>
       </c>
-      <c r="H36" s="6">
-        <v>10</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="H38" s="6">
+        <v>10</v>
+      </c>
+      <c r="J38" t="s">
         <v>149</v>
       </c>
-      <c r="L36" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="L38" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
         <v>150</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>151</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E39" t="s">
         <v>152</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G39" t="s">
         <v>153</v>
       </c>
-      <c r="H37" s="6">
-        <v>10</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H39" s="6">
+        <v>10</v>
+      </c>
+      <c r="J39" t="s">
         <v>154</v>
       </c>
-      <c r="L37" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="L39" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
         <v>155</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>156</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>157</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G40" t="s">
         <v>158</v>
       </c>
-      <c r="H38" s="6">
-        <v>10</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="H40" s="6">
+        <v>10</v>
+      </c>
+      <c r="J40" t="s">
+        <v>144</v>
+      </c>
+      <c r="L40" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" t="s">
         <v>159</v>
       </c>
-      <c r="L38" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M38" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D41" t="s">
         <v>160</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E41" t="s">
         <v>161</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G41" t="s">
         <v>162</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H41" s="6">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
         <v>163</v>
       </c>
-      <c r="H39" s="6">
-        <v>10</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="L41" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s">
         <v>164</v>
       </c>
-      <c r="L39" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D42" t="s">
         <v>165</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E42" t="s">
         <v>166</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G42" t="s">
         <v>167</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H42" s="6">
+        <v>10</v>
+      </c>
+      <c r="J42" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="6">
-        <v>10</v>
-      </c>
-      <c r="J40" t="s">
-        <v>154</v>
-      </c>
-      <c r="L40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M40" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="L42" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" t="s">
         <v>169</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D43" t="s">
         <v>170</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E43" t="s">
         <v>171</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G43" t="s">
         <v>172</v>
       </c>
-      <c r="H41" s="6">
-        <v>10</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="H43" s="6">
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
         <v>173</v>
       </c>
-      <c r="L41" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M41" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="L43" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" t="s">
         <v>174</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>175</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E44" t="s">
         <v>176</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G44" t="s">
         <v>177</v>
       </c>
-      <c r="H42" s="6">
-        <v>10</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="H44" s="6">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
         <v>178</v>
       </c>
-      <c r="L42" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M42" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="L44" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" t="s">
         <v>179</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>180</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>181</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G45" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="6">
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="H45" s="6">
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
         <v>183</v>
       </c>
-      <c r="L43" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M43" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="L45" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" t="s">
         <v>184</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>185</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>186</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G46" t="s">
         <v>187</v>
       </c>
-      <c r="H44" s="6">
-        <v>10</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="H46" s="6">
+        <v>10</v>
+      </c>
+      <c r="J46" t="s">
         <v>188</v>
       </c>
-      <c r="L44" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="L46" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" t="s">
         <v>189</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D47" t="s">
         <v>190</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E47" t="s">
         <v>191</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G47" t="s">
         <v>192</v>
       </c>
-      <c r="H45" s="6">
-        <v>10</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="H47" s="6">
+        <v>10</v>
+      </c>
+      <c r="J47" t="s">
         <v>193</v>
       </c>
-      <c r="L45" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="L47" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48" t="s">
         <v>194</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D48" t="s">
         <v>195</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E48" t="s">
         <v>196</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G48" t="s">
         <v>197</v>
       </c>
-      <c r="H46" s="6">
-        <v>10</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="H48" s="6">
+        <v>10</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" t="s">
         <v>198</v>
       </c>
-      <c r="L46" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D49" t="s">
         <v>199</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E49" t="s">
         <v>200</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G49" t="s">
         <v>201</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H49" s="6">
+        <v>10</v>
+      </c>
+      <c r="J49" t="s">
         <v>202</v>
       </c>
-      <c r="H47" s="6">
-        <v>10</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="L49" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
         <v>203</v>
       </c>
-      <c r="L47" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M47" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D50" t="s">
         <v>204</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E50" t="s">
         <v>205</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G50" t="s">
         <v>206</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H50" s="6">
+        <v>10</v>
+      </c>
+      <c r="J50" t="s">
         <v>207</v>
       </c>
-      <c r="H48" s="6">
-        <v>10</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M48" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="L50" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
         <v>208</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>209</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E51" t="s">
         <v>210</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G51" t="s">
         <v>211</v>
       </c>
-      <c r="H49" s="6">
-        <v>10</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="H51" s="6">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
         <v>212</v>
       </c>
-      <c r="L49" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M49" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="L51" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
         <v>213</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>214</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E52" t="s">
         <v>215</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G52" t="s">
         <v>216</v>
       </c>
-      <c r="H50" s="6">
-        <v>10</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="H52" s="6">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
         <v>217</v>
       </c>
-      <c r="L50" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M50" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="L52" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
         <v>218</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D53" t="s">
         <v>219</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E53" t="s">
         <v>220</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G53" t="s">
         <v>221</v>
       </c>
-      <c r="H51" s="6">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="H53" s="6">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
         <v>222</v>
       </c>
-      <c r="L51" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M51" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>32</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="L53" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
         <v>223</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D54" t="s">
         <v>224</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E54" t="s">
         <v>225</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G54" t="s">
         <v>226</v>
       </c>
-      <c r="H52" s="6">
-        <v>10</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="H54" s="6">
+        <v>10</v>
+      </c>
+      <c r="J54" t="s">
         <v>227</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M52" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="L54" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
         <v>228</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>229</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E55" t="s">
         <v>230</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G55" t="s">
         <v>231</v>
       </c>
-      <c r="H53" s="6">
-        <v>10</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="H55" s="6">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
         <v>232</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M53" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="L55" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
         <v>233</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D56" t="s">
         <v>234</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E56" t="s">
         <v>235</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G56" t="s">
         <v>236</v>
       </c>
-      <c r="H54" s="6">
-        <v>10</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="H56" s="6">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
         <v>237</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M54" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" t="s">
-        <v>238</v>
-      </c>
-      <c r="D55" t="s">
-        <v>239</v>
-      </c>
-      <c r="E55" t="s">
-        <v>240</v>
-      </c>
-      <c r="G55" t="s">
-        <v>241</v>
-      </c>
-      <c r="H55" s="6">
-        <v>10</v>
-      </c>
-      <c r="J55" t="s">
-        <v>242</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>243</v>
-      </c>
-      <c r="D56" t="s">
-        <v>244</v>
-      </c>
-      <c r="E56" t="s">
-        <v>245</v>
-      </c>
-      <c r="G56" t="s">
-        <v>246</v>
-      </c>
-      <c r="H56" s="6">
-        <v>10</v>
-      </c>
-      <c r="J56" t="s">
-        <v>247</v>
-      </c>
       <c r="L56" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="M56" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="H59" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="L1:M1"/>
     <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:M3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE5C45-7D08-45A9-A52C-670DFCCD71D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8919B6-BF66-42E1-A05A-760B259A1E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="264">
   <si>
     <t>##var</t>
   </si>
@@ -702,9 +691,6 @@
     <t>Bullet_TowerRocket2</t>
   </si>
   <si>
-    <t>0.02,2.1,0.66</t>
-  </si>
-  <si>
     <t>TowerRocket3</t>
   </si>
   <si>
@@ -717,9 +703,6 @@
     <t>Bullet_TowerRocket3</t>
   </si>
   <si>
-    <t>0,2.46,0.88</t>
-  </si>
-  <si>
     <t>TowerScorpio1</t>
   </si>
   <si>
@@ -808,10 +791,6 @@
   </si>
   <si>
     <t>0,2.7,1.9</t>
-  </si>
-  <si>
-    <t>0.017,1.58,0.3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>string#ref=BulletCfgCategory</t>
@@ -845,13 +824,88 @@
   </si>
   <si>
     <t>MoveTween_Target_37_0.2</t>
+  </si>
+  <si>
+    <t>MoveTween_Parabola_Rocket</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.4,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.9,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.8,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Target_MagicBall</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet1</t>
+  </si>
+  <si>
+    <t>Bullet_TowerFire_Bullet1</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet2</t>
+  </si>
+  <si>
+    <t>Bullet_TowerFire_Bullet2</t>
+  </si>
+  <si>
+    <t>TowerFire_Bullet3</t>
+  </si>
+  <si>
+    <t>Bullet_TowerFire_Bullet3</t>
+  </si>
+  <si>
+    <t>射出水晶塔1</t>
+  </si>
+  <si>
+    <t>射出水晶塔2</t>
+  </si>
+  <si>
+    <t>射出水晶塔3</t>
+  </si>
+  <si>
+    <r>
+      <t>MoveTween_Straight_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>crystal</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.6,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1.9,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2.3,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +939,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -992,7 +1053,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
@@ -1009,6 +1070,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1307,23 +1372,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="1" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="26.77734375" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="32.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.75" customWidth="1"/>
+    <col min="7" max="7" width="26.75" customWidth="1"/>
+    <col min="8" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1344,13 +1409,13 @@
       <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="13"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="15"/>
       <c r="L1" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M1"/>
       <c r="N1"/>
@@ -1367,7 +1432,7 @@
       <c r="Y1"/>
       <c r="Z1"/>
     </row>
-    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1403,7 +1468,7 @@
       <c r="Y2"/>
       <c r="Z2"/>
     </row>
-    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1419,18 +1484,18 @@
         <v>11</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
       <c r="L3" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M3"/>
       <c r="N3"/>
@@ -1447,7 +1512,7 @@
       <c r="Y3"/>
       <c r="Z3"/>
     </row>
-    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1479,7 +1544,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -1527,7 +1592,7 @@
       <c r="Y5"/>
       <c r="Z5"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -1551,10 +1616,10 @@
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1578,10 +1643,10 @@
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>26</v>
       </c>
@@ -1602,10 +1667,10 @@
         <v>50</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>26</v>
       </c>
@@ -1626,10 +1691,10 @@
         <v>50</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -1650,10 +1715,10 @@
         <v>50</v>
       </c>
       <c r="L10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>26</v>
       </c>
@@ -1674,10 +1739,10 @@
         <v>50</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>26</v>
       </c>
@@ -1698,10 +1763,10 @@
         <v>10</v>
       </c>
       <c r="L12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>26</v>
       </c>
@@ -1722,10 +1787,10 @@
         <v>10</v>
       </c>
       <c r="L13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>26</v>
       </c>
@@ -1746,10 +1811,10 @@
         <v>10</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -1773,10 +1838,10 @@
         <v>48</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -1800,10 +1865,10 @@
         <v>52</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>26</v>
       </c>
@@ -1827,10 +1892,10 @@
         <v>56</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>26</v>
       </c>
@@ -1854,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>26</v>
       </c>
@@ -1881,10 +1946,10 @@
         <v>64</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1908,10 +1973,10 @@
         <v>68</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1935,10 +2000,10 @@
         <v>72</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -1962,10 +2027,10 @@
         <v>76</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>26</v>
       </c>
@@ -1989,10 +2054,10 @@
         <v>80</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>26</v>
       </c>
@@ -2016,10 +2081,10 @@
         <v>84</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>26</v>
       </c>
@@ -2043,10 +2108,10 @@
         <v>88</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>26</v>
       </c>
@@ -2070,10 +2135,10 @@
         <v>92</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -2096,10 +2161,10 @@
         <v>60</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>26</v>
       </c>
@@ -2122,10 +2187,10 @@
         <v>60</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -2148,10 +2213,10 @@
         <v>60</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -2174,10 +2239,10 @@
         <v>109</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>26</v>
       </c>
@@ -2200,10 +2265,10 @@
         <v>114</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>26</v>
       </c>
@@ -2226,10 +2291,10 @@
         <v>119</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>26</v>
       </c>
@@ -2252,10 +2317,10 @@
         <v>124</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>26</v>
       </c>
@@ -2278,10 +2343,10 @@
         <v>129</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>26</v>
       </c>
@@ -2304,10 +2369,10 @@
         <v>134</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
         <v>26</v>
       </c>
@@ -2330,10 +2395,10 @@
         <v>139</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>26</v>
       </c>
@@ -2356,10 +2421,10 @@
         <v>144</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>26</v>
       </c>
@@ -2382,10 +2447,10 @@
         <v>149</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>26</v>
       </c>
@@ -2408,10 +2473,10 @@
         <v>154</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>26</v>
       </c>
@@ -2434,10 +2499,10 @@
         <v>144</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
         <v>26</v>
       </c>
@@ -2460,10 +2525,10 @@
         <v>163</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>26</v>
       </c>
@@ -2486,10 +2551,10 @@
         <v>168</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>26</v>
       </c>
@@ -2512,10 +2577,10 @@
         <v>173</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>26</v>
       </c>
@@ -2538,10 +2603,10 @@
         <v>178</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>26</v>
       </c>
@@ -2564,10 +2629,10 @@
         <v>183</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>26</v>
       </c>
@@ -2590,10 +2655,10 @@
         <v>188</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>26</v>
       </c>
@@ -2616,10 +2681,10 @@
         <v>193</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>26</v>
       </c>
@@ -2639,13 +2704,13 @@
         <v>10</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="L48" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>26</v>
       </c>
@@ -2664,197 +2729,275 @@
       <c r="H49" s="6">
         <v>10</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
         <v>202</v>
       </c>
-      <c r="L49" s="6" t="s">
+      <c r="D50" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" t="s">
+        <v>204</v>
+      </c>
+      <c r="G50" t="s">
+        <v>205</v>
+      </c>
+      <c r="H50" s="6">
+        <v>10</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" t="s">
+        <v>207</v>
+      </c>
+      <c r="E51" t="s">
+        <v>208</v>
+      </c>
+      <c r="G51" t="s">
+        <v>209</v>
+      </c>
+      <c r="H51" s="6">
+        <v>10</v>
+      </c>
+      <c r="J51" t="s">
+        <v>210</v>
+      </c>
+      <c r="L51" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
-        <v>203</v>
-      </c>
-      <c r="D50" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" t="s">
-        <v>205</v>
-      </c>
-      <c r="G50" t="s">
-        <v>206</v>
-      </c>
-      <c r="H50" s="6">
-        <v>10</v>
-      </c>
-      <c r="J50" t="s">
-        <v>207</v>
-      </c>
-      <c r="L50" s="6" t="s">
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" t="s">
+        <v>213</v>
+      </c>
+      <c r="G52" t="s">
+        <v>214</v>
+      </c>
+      <c r="H52" s="6">
+        <v>10</v>
+      </c>
+      <c r="J52" t="s">
+        <v>215</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>26</v>
-      </c>
-      <c r="C51" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" t="s">
-        <v>210</v>
-      </c>
-      <c r="G51" t="s">
-        <v>211</v>
-      </c>
-      <c r="H51" s="6">
-        <v>10</v>
-      </c>
-      <c r="J51" t="s">
-        <v>212</v>
-      </c>
-      <c r="L51" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" t="s">
-        <v>215</v>
-      </c>
-      <c r="G52" t="s">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
         <v>216</v>
       </c>
-      <c r="H52" s="6">
-        <v>10</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="D53" t="s">
         <v>217</v>
       </c>
-      <c r="L52" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>218</v>
       </c>
-      <c r="D53" t="s">
+      <c r="G53" t="s">
         <v>219</v>
       </c>
-      <c r="E53" t="s">
+      <c r="H53" s="6">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
         <v>220</v>
       </c>
-      <c r="G53" t="s">
+      <c r="L53" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
         <v>221</v>
       </c>
-      <c r="H53" s="6">
-        <v>10</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="D54" t="s">
         <v>222</v>
       </c>
-      <c r="L53" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>223</v>
       </c>
-      <c r="D54" t="s">
+      <c r="G54" t="s">
         <v>224</v>
       </c>
-      <c r="E54" t="s">
+      <c r="H54" s="6">
+        <v>10</v>
+      </c>
+      <c r="J54" t="s">
         <v>225</v>
       </c>
-      <c r="G54" t="s">
+      <c r="L54" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
         <v>226</v>
       </c>
-      <c r="H54" s="6">
-        <v>10</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="D55" t="s">
         <v>227</v>
       </c>
-      <c r="L54" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>228</v>
       </c>
-      <c r="D55" t="s">
+      <c r="G55" t="s">
         <v>229</v>
       </c>
-      <c r="E55" t="s">
+      <c r="H55" s="6">
+        <v>10</v>
+      </c>
+      <c r="J55" t="s">
         <v>230</v>
       </c>
-      <c r="G55" t="s">
+      <c r="L55" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
         <v>231</v>
       </c>
-      <c r="H55" s="6">
-        <v>10</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="D56" t="s">
         <v>232</v>
       </c>
-      <c r="L55" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>233</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>234</v>
       </c>
-      <c r="E56" t="s">
+      <c r="H56" s="6">
+        <v>10</v>
+      </c>
+      <c r="J56" t="s">
         <v>235</v>
       </c>
-      <c r="G56" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="6">
-        <v>10</v>
-      </c>
-      <c r="J56" t="s">
-        <v>237</v>
-      </c>
       <c r="L56" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H59" s="6"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" t="s">
+        <v>251</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" ref="D57:D59" si="5">B57&amp;"_"&amp;C57</f>
+        <v>FireBullet_TowerFire_Bullet1</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="G57" t="s">
+        <v>252</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="L57" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>253</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="5"/>
+        <v>FireBullet_TowerFire_Bullet2</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G58" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="J58" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="5"/>
+        <v>FireBullet_TowerFire_Bullet3</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>260</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698EFF43-ABF3-4809-91BB-D7F9D61B21D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF45EDB-F1E7-4504-8FE7-D7CDFEF898AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="303">
   <si>
     <t>##var</t>
   </si>
@@ -100,9 +90,6 @@
   </si>
   <si>
     <t>offSetPosition</t>
-  </si>
-  <si>
-    <t>relateForward</t>
   </si>
   <si>
     <t>##type</t>
@@ -955,6 +942,178 @@
   <si>
     <t>火弹</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Hellfire</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时大幅强化一名友军并使其无敌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对静默</t>
+  </si>
+  <si>
+    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Hell</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>MoveTween_Straight_PlayerSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepHorizontal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保持水平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relateRotation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TimeBarrier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_TimeBarrier</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.2,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_37_Air</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-0.7,1</t>
   </si>
 </sst>
 </file>
@@ -1429,24 +1588,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="K69" sqref="K69:K73"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="30.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.77734375" customWidth="1"/>
-    <col min="6" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="32.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="5" width="26.75" customWidth="1"/>
+    <col min="6" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1469,11 +1628,11 @@
         <v>6</v>
       </c>
       <c r="H1" s="15"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K1"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="9" t="s">
+        <v>190</v>
+      </c>
       <c r="L1"/>
       <c r="M1"/>
       <c r="N1"/>
@@ -1487,8 +1646,9 @@
       <c r="V1"/>
       <c r="W1"/>
       <c r="X1"/>
-    </row>
-    <row r="2" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y1"/>
+    </row>
+    <row r="2" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1504,10 +1664,12 @@
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2"/>
+        <v>293</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K2" s="7"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -1521,35 +1683,36 @@
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-    </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y2"/>
+    </row>
+    <row r="3" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="G3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3"/>
@@ -1563,15 +1726,16 @@
       <c r="V3"/>
       <c r="W3"/>
       <c r="X3"/>
-    </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y3"/>
+    </row>
+    <row r="4" spans="1:25" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -1579,7 +1743,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4"/>
+      <c r="K4" s="4"/>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
@@ -1593,39 +1757,42 @@
       <c r="V4"/>
       <c r="W4"/>
       <c r="X4"/>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y4"/>
+    </row>
+    <row r="5" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
@@ -1639,16 +1806,17 @@
       <c r="V5"/>
       <c r="W5"/>
       <c r="X5"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="F6" s="6">
         <v>50</v>
@@ -1656,19 +1824,20 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="12" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J6" s="6"/>
+      <c r="K6" s="12" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="F7" s="6">
         <v>50</v>
@@ -1676,1185 +1845,1589 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="6">
         <v>50</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K8" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6">
         <v>50</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K9" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6">
         <v>50</v>
       </c>
-      <c r="J10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="6">
         <v>50</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K11" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6">
+        <v>10</v>
+      </c>
+      <c r="K12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="6">
-        <v>10</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="6">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="6">
+        <v>10</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="6">
+        <v>10</v>
+      </c>
+      <c r="H15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="6">
+        <v>10</v>
+      </c>
+      <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="6">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="6">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>53</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="6">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="6">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="6">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="6">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="6">
-        <v>10</v>
-      </c>
-      <c r="J13" t="s">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>231</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="6">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>221</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="6">
-        <v>10</v>
-      </c>
-      <c r="J14" s="8" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="6">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
-      <c r="H15" t="s">
-        <v>42</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="6">
-        <v>10</v>
-      </c>
-      <c r="H16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10</v>
-      </c>
-      <c r="H17" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>225</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="6">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="6">
-        <v>10</v>
-      </c>
-      <c r="H18" t="s">
-        <v>51</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="6">
-        <v>10</v>
-      </c>
-      <c r="H19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="6">
-        <v>10</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="H21" t="s">
-        <v>60</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="K27" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="6">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="6">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="6">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="6">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>91</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="6">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>95</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E33" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
+      </c>
+      <c r="K33" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="6">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+      <c r="K34" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="6">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="6">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>111</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="6">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="6">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="6">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="6">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>115</v>
+      </c>
+      <c r="K40" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="6">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F42" s="6">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="K42" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="6">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>138</v>
+      </c>
+      <c r="K43" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="6">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
+        <v>145</v>
+      </c>
+      <c r="F45" s="6">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>146</v>
+      </c>
+      <c r="K45" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F46" s="6">
+        <v>10</v>
+      </c>
+      <c r="H46" t="s">
+        <v>150</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="F47" s="6">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>154</v>
+      </c>
+      <c r="K47" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
+        <v>156</v>
+      </c>
+      <c r="E48" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="6">
+        <v>10</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K48" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="H22" t="s">
-        <v>63</v>
-      </c>
-      <c r="J22" s="6" t="s">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
+        <v>159</v>
+      </c>
+      <c r="E49" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="6">
+        <v>10</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="K49" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>230</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
-      <c r="H23" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="6" t="s">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="E50" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="6">
+        <v>10</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K50" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>231</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-      <c r="H24" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="6">
-        <v>10</v>
-      </c>
-      <c r="H25" t="s">
-        <v>72</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" t="s">
+        <v>166</v>
+      </c>
+      <c r="F51" s="6">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>167</v>
+      </c>
+      <c r="K51" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="E52" t="s">
+        <v>170</v>
+      </c>
+      <c r="F52" s="6">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>171</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="E53" t="s">
+        <v>174</v>
+      </c>
+      <c r="F53" s="6">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>175</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+      <c r="F54" s="6">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>179</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" t="s">
+        <v>182</v>
+      </c>
+      <c r="F55" s="6">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>183</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="6">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>187</v>
+      </c>
+      <c r="K56" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
         <v>233</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="6">
-        <v>10</v>
-      </c>
-      <c r="H26" t="s">
-        <v>75</v>
-      </c>
-      <c r="J26" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" t="s">
-        <v>78</v>
-      </c>
-      <c r="F27" s="6">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>51</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F28" s="6">
-        <v>10</v>
-      </c>
-      <c r="H28" t="s">
-        <v>51</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="6">
-        <v>10</v>
-      </c>
-      <c r="H29" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="6">
-        <v>10</v>
-      </c>
-      <c r="H30" t="s">
-        <v>88</v>
-      </c>
-      <c r="J30" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="6">
-        <v>10</v>
-      </c>
-      <c r="H31" t="s">
-        <v>92</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="6">
-        <v>10</v>
-      </c>
-      <c r="H32" t="s">
-        <v>96</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="E33" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="6">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="6">
-        <v>10</v>
-      </c>
-      <c r="H34" t="s">
-        <v>104</v>
-      </c>
-      <c r="J34" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="6">
-        <v>10</v>
-      </c>
-      <c r="H35" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="6">
-        <v>10</v>
-      </c>
-      <c r="H36" t="s">
-        <v>112</v>
-      </c>
-      <c r="J36" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" t="s">
-        <v>115</v>
-      </c>
-      <c r="F37" s="6">
-        <v>10</v>
-      </c>
-      <c r="H37" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" t="s">
-        <v>119</v>
-      </c>
-      <c r="F38" s="6">
-        <v>10</v>
-      </c>
-      <c r="H38" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
-      <c r="E39" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="6">
-        <v>10</v>
-      </c>
-      <c r="H39" t="s">
-        <v>124</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="6">
-        <v>10</v>
-      </c>
-      <c r="H40" t="s">
-        <v>116</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="E41" t="s">
-        <v>130</v>
-      </c>
-      <c r="F41" s="6">
-        <v>10</v>
-      </c>
-      <c r="H41" t="s">
-        <v>131</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" t="s">
-        <v>134</v>
-      </c>
-      <c r="F42" s="6">
-        <v>10</v>
-      </c>
-      <c r="H42" t="s">
-        <v>135</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="6">
-        <v>10</v>
-      </c>
-      <c r="H43" t="s">
-        <v>139</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" t="s">
-        <v>141</v>
-      </c>
-      <c r="E44" t="s">
-        <v>142</v>
-      </c>
-      <c r="F44" s="6">
-        <v>10</v>
-      </c>
-      <c r="H44" t="s">
-        <v>143</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>144</v>
-      </c>
-      <c r="C45" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" t="s">
-        <v>146</v>
-      </c>
-      <c r="F45" s="6">
-        <v>10</v>
-      </c>
-      <c r="H45" t="s">
-        <v>147</v>
-      </c>
-      <c r="J45" s="6" t="s">
+      <c r="C57" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="E57" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" t="s">
-        <v>150</v>
-      </c>
-      <c r="F46" s="6">
-        <v>10</v>
-      </c>
-      <c r="H46" t="s">
-        <v>151</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" t="s">
-        <v>153</v>
-      </c>
-      <c r="E47" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="6">
-        <v>10</v>
-      </c>
-      <c r="H47" t="s">
-        <v>155</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>156</v>
-      </c>
-      <c r="C48" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" t="s">
-        <v>158</v>
-      </c>
-      <c r="F48" s="6">
-        <v>10</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>159</v>
-      </c>
-      <c r="C49" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" t="s">
-        <v>161</v>
-      </c>
-      <c r="F49" s="6">
-        <v>10</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>162</v>
-      </c>
-      <c r="C50" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" t="s">
-        <v>164</v>
-      </c>
-      <c r="F50" s="6">
-        <v>10</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" t="s">
-        <v>167</v>
-      </c>
-      <c r="F51" s="6">
-        <v>10</v>
-      </c>
-      <c r="H51" t="s">
-        <v>168</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" t="s">
-        <v>171</v>
-      </c>
-      <c r="F52" s="6">
-        <v>10</v>
-      </c>
-      <c r="H52" t="s">
-        <v>172</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>173</v>
-      </c>
-      <c r="C53" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="6">
-        <v>10</v>
-      </c>
-      <c r="H53" t="s">
-        <v>176</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>177</v>
-      </c>
-      <c r="C54" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" t="s">
-        <v>179</v>
-      </c>
-      <c r="F54" s="6">
-        <v>10</v>
-      </c>
-      <c r="H54" t="s">
-        <v>180</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" t="s">
-        <v>182</v>
-      </c>
-      <c r="E55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F55" s="6">
-        <v>10</v>
-      </c>
-      <c r="H55" t="s">
-        <v>184</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" t="s">
-        <v>186</v>
-      </c>
-      <c r="E56" t="s">
-        <v>187</v>
-      </c>
-      <c r="F56" s="6">
-        <v>10</v>
-      </c>
-      <c r="H56" t="s">
-        <v>188</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>234</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E57" t="s">
-        <v>203</v>
       </c>
       <c r="F57" s="6">
         <v>0.3</v>
       </c>
       <c r="H57" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="J57" s="12" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K57" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F58" s="6">
         <v>0.3</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="J58" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E59" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F59" s="6">
         <v>0.6</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="J59" s="12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="E61" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="6">
+        <v>10</v>
+      </c>
+      <c r="H61" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="F61" s="6">
-        <v>10</v>
-      </c>
-      <c r="H61" s="8" t="s">
+      <c r="K61" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="J61" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B62" s="13" t="s">
+      <c r="C62" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C62" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="F62" s="6">
         <v>10</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="J62" s="11" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F65">
-        <v>10</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J65" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K65" s="8"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="F67">
-        <v>10</v>
-      </c>
-      <c r="H67" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J67" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="K67" s="8"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F69">
-        <v>10</v>
-      </c>
-      <c r="H69" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K69" s="8"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F71">
-        <v>10</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K71" s="8"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="F73">
-        <v>10</v>
-      </c>
-      <c r="H73" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="J73" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="K73" s="8"/>
+      <c r="K62" s="11" t="s">
+        <v>197</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G3:J3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9FBD6C-2F08-4412-84D5-1BACBC4D4F5E}">
+  <dimension ref="A1:L26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="K2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" t="s">
+        <v>285</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E12" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K12" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>263</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="H15" s="8"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF45EDB-F1E7-4504-8FE7-D7CDFEF898AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E9600-0AC1-48A5-8A77-78F72518E096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="323">
   <si>
     <t>##var</t>
   </si>
@@ -856,8 +856,258 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>FireBullet_Monster_Xueren3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Monster_XueRen3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物-雪人3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerManualSkill_1_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerManualSkill_2_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Stay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerManualSkill_3_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerManualSkill_4_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_FireSea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_FireSea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Fire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>火弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_BreakArmor</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Hellfire</t>
+  </si>
+  <si>
+    <t>FireBullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>破甲弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害敌方并降低护甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜漩涡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>冻结范围内的所有敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>时空结界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造结界，敌人大幅减速，友军大幅加速</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化药水</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时大幅强化一名友军并使其无敌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对静默</t>
+  </si>
+  <si>
+    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林召唤</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地狱烈焰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑洞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_IceBind</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_TimeBarrier</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_PurifyWater</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Enhance</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Silence</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_GoblinSummon</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Hell</t>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_Blackhole</t>
+  </si>
+  <si>
+    <t>MoveTween_Straight_PlayerSkill</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keepHorizontal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否保持水平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>relateRotation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_TimeBarrier</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_TimeBarrier</t>
+  </si>
+  <si>
+    <t>MoveTween_Target_37</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.2,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_PlayerSkill_BreakArmor</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveTween_Straight_37_Air</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-0.7,1</t>
+  </si>
+  <si>
+    <t>怪物-骷髅1空子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Monster_Skull1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet_Monster_Skull1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Monster_FireSpirit2</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_FireSpirit2</t>
+  </si>
+  <si>
     <r>
-      <t>0,0.25</t>
+      <t>怪物-火精灵</t>
     </r>
     <r>
       <rPr>
@@ -868,7 +1118,57 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,0</t>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Monster_FireSpirit3</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_FireSpirit3</t>
+  </si>
+  <si>
+    <t>怪物-火精灵3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Monster_FireSpirit3_EarthFire</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_FireSpirit3_EarthFire</t>
+  </si>
+  <si>
+    <t>FireBullet_Monster_Scorpid1</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_Scorpid1</t>
+  </si>
+  <si>
+    <t>怪物-麻痹蝎1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,0.25</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireBullet_Monster_Scorpid2</t>
+  </si>
+  <si>
+    <t>Bullet_Monster_Scorpid2</t>
+  </si>
+  <si>
+    <t>怪物-麻痹蝎2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FireBullet_Tower_Cannon_Bullet_</t>
     </r>
     <r>
       <rPr>
@@ -879,241 +1179,26 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.5</t>
+      <t>2_Crit</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>FireBullet_Monster_Xueren3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Monster_XueRen3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物-雪人3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBullet_PlayerManualSkill_1_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBullet_PlayerManualSkill_2_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火海</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveTween_Straight_37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveTween_Stay</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBullet_PlayerManualSkill_3_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBullet_PlayerManualSkill_4_1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_FireSea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBullet_FireSea</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_Fire</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>火弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_BreakArmor</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_IceBind</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_TimeBarrier</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_PurifyWater</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_Enhance</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_Silence</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_GoblinSummon</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_Hellfire</t>
-  </si>
-  <si>
-    <t>FireBullet_PlayerSkill_Blackhole</t>
-  </si>
-  <si>
-    <t>破甲弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害敌方并降低护甲</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜漩涡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>冻结范围内的所有敌人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>时空结界</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>创造结界，敌人大幅减速，友军大幅加速</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>净化药水</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱散敌人隐身、护盾等各种加成效果，并造成持续伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化子弹</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>暂时大幅强化一名友军并使其无敌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝对静默</t>
-  </si>
-  <si>
-    <t>禁止范围内敌人使用任何技能，且造成持续伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥布林召唤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤一个哥布林在一段时间内偷取敌人金钱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>地狱烈焰</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>降下大范围火焰，并留下火焰灼烧经过的敌人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑洞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续吸引大片敌人，造成生命上限的百分比伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_IceBind</t>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_TimeBarrier</t>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_PurifyWater</t>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_Enhance</t>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_Silence</t>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_GoblinSummon</t>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_Hell</t>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_Blackhole</t>
-  </si>
-  <si>
-    <t>MoveTween_Straight_PlayerSkill</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>keepHorizontal</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否保持水平</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>relateRotation</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FireBullet_TimeBarrier</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结界</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_TimeBarrier</t>
-  </si>
-  <si>
-    <t>MoveTween_Target_37</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0.2,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet_PlayerSkill_BreakArmor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveTween_Straight_PlayerSkill_BreakArmor</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoveTween_Straight_37_Air</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-0.7,1</t>
+    <r>
+      <t>Bullet_Tower_Cannon_Bullet_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2_Crit</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1588,16 +1673,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y62"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="K58" sqref="K58:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="35.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.75" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
@@ -1664,10 +1752,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2"/>
@@ -1788,7 +1876,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>24</v>
@@ -1826,7 +1914,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -2070,20 +2158,20 @@
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>226</v>
+      <c r="B20" s="8" t="s">
+        <v>321</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
-        <v>55</v>
+      <c r="E20" s="8" t="s">
+        <v>322</v>
       </c>
       <c r="F20" s="6">
         <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>192</v>
@@ -2091,39 +2179,39 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F21" s="6">
         <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="6">
         <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K22" s="6" t="s">
         <v>196</v>
@@ -2131,19 +2219,19 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F23" s="6">
         <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>196</v>
@@ -2151,39 +2239,39 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F24" s="6">
         <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F25" s="6">
         <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K25" s="6" t="s">
         <v>195</v>
@@ -2191,19 +2279,19 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F26" s="6">
         <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K26" s="6" t="s">
         <v>195</v>
@@ -2211,33 +2299,33 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
+        <v>232</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F27" s="6">
         <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F28" s="6">
         <v>10</v>
@@ -2251,13 +2339,13 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F29" s="6">
         <v>10</v>
@@ -2271,39 +2359,39 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F30" s="6">
         <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F31" s="6">
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>192</v>
@@ -2311,19 +2399,19 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F32" s="6">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>192</v>
@@ -2331,19 +2419,19 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F33" s="6">
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K33" s="6" t="s">
         <v>192</v>
@@ -2351,19 +2439,19 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F34" s="6">
         <v>10</v>
       </c>
       <c r="H34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>192</v>
@@ -2371,19 +2459,19 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F35" s="6">
         <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>192</v>
@@ -2391,19 +2479,19 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F36" s="6">
         <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K36" s="6" t="s">
         <v>192</v>
@@ -2411,59 +2499,59 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F37" s="6">
         <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>297</v>
+        <v>111</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F38" s="6">
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>119</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F39" s="6">
         <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K39" s="6" t="s">
         <v>192</v>
@@ -2471,19 +2559,19 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F40" s="6">
         <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K40" s="6" t="s">
         <v>192</v>
@@ -2491,19 +2579,19 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F41" s="6">
         <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="K41" s="6" t="s">
         <v>192</v>
@@ -2511,19 +2599,19 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F42" s="6">
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K42" s="6" t="s">
         <v>192</v>
@@ -2531,19 +2619,19 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F43" s="6">
         <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K43" s="6" t="s">
         <v>192</v>
@@ -2551,19 +2639,19 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C44" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F44" s="6">
         <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K44" s="6" t="s">
         <v>192</v>
@@ -2571,39 +2659,39 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F45" s="6">
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F46" s="6">
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K46" s="6" t="s">
         <v>201</v>
@@ -2611,19 +2699,19 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E47" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F47" s="6">
         <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>201</v>
@@ -2631,282 +2719,421 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48" s="6">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>154</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>155</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>156</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>157</v>
       </c>
-      <c r="F48" s="6">
-        <v>10</v>
-      </c>
-      <c r="H48" s="8" t="s">
+      <c r="F49" s="6">
+        <v>10</v>
+      </c>
+      <c r="H49" s="8" t="s">
         <v>198</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" t="s">
-        <v>160</v>
-      </c>
-      <c r="F49" s="6">
-        <v>10</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>199</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F50" s="6">
         <v>10</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="6">
+        <v>10</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>164</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>165</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E52" t="s">
         <v>166</v>
       </c>
-      <c r="F51" s="6">
-        <v>10</v>
-      </c>
-      <c r="H51" t="s">
+      <c r="F52" s="6">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
         <v>167</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>168</v>
-      </c>
-      <c r="C52" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="6">
-        <v>10</v>
-      </c>
-      <c r="H52" t="s">
-        <v>171</v>
       </c>
       <c r="K52" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E53" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F53" s="6">
         <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K53" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="E54" t="s">
+        <v>174</v>
+      </c>
+      <c r="F54" s="6">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>175</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>176</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>177</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>178</v>
       </c>
-      <c r="F54" s="6">
-        <v>10</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="F55" s="6">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
         <v>179</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>180</v>
-      </c>
-      <c r="C55" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" t="s">
-        <v>182</v>
-      </c>
-      <c r="F55" s="6">
-        <v>10</v>
-      </c>
-      <c r="H55" t="s">
-        <v>183</v>
       </c>
       <c r="K55" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E56" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F56" s="6">
         <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K56" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>185</v>
+      </c>
+      <c r="E57" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="6">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>187</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>202</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.3</v>
-      </c>
-      <c r="H57" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>234</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="E58" t="s">
-        <v>203</v>
       </c>
       <c r="F58" s="6">
         <v>0.3</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K58" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F59" s="6">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="13" t="s">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="K60" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B62" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="F61" s="6">
-        <v>10</v>
-      </c>
-      <c r="H61" s="8" t="s">
+      <c r="F62" s="6">
+        <v>10</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="K61" s="6" t="s">
+      <c r="C63" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F63" s="6">
+        <v>10</v>
+      </c>
+      <c r="H63" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="K63" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="F64">
+        <v>3</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="L64" s="8"/>
+    </row>
+    <row r="65" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F65" s="6">
+        <v>10</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F66" s="6">
+        <v>10</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K66" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="6">
+        <v>15</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="K67" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68" s="6">
+        <v>10</v>
+      </c>
+      <c r="H68" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F62" s="6">
-        <v>10</v>
-      </c>
-      <c r="H62" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K62" s="11" t="s">
-        <v>197</v>
+    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2924,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9FBD6C-2F08-4412-84D5-1BACBC4D4F5E}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2986,10 +3213,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K2" s="7"/>
     </row>
@@ -3068,7 +3295,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>24</v>
@@ -3076,209 +3303,209 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="E6" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="K6" s="11" t="s">
         <v>299</v>
-      </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="E7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>273</v>
-      </c>
       <c r="E10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="E11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>277</v>
-      </c>
       <c r="E12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="E13" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>281</v>
-      </c>
       <c r="E14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3289,25 +3516,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="E16" t="s">
         <v>295</v>
       </c>
-      <c r="E16" t="s">
-        <v>296</v>
-      </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3315,22 +3542,22 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -3340,85 +3567,85 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L20" s="8"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L22" s="8"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>251</v>
-      </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L24" s="8"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L26" s="8"/>
     </row>

--- a/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
+++ b/Unity/Assets/Config/Excel/AbilityConfig/ActionConfig/ActionCfg_FireBullet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XysWorkSpace\Project\ARTowerDefense\Unity\Assets\Config\Excel\AbilityConfig\ActionConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259E9600-0AC1-48A5-8A77-78F72518E096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49780EB-FF84-4549-8EEE-2C0D883FFBE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,15 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="玩家技能" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="284">
   <si>
     <t>##var</t>
   </si>
@@ -203,453 +206,222 @@
     <t>Bullet_EnemySolo1</t>
   </si>
   <si>
-    <t>射出弩箭1</t>
-  </si>
-  <si>
     <t>Bullet_Tower_Arrow_Bullet_1</t>
   </si>
   <si>
-    <t>0,1.74,0.88</t>
-  </si>
-  <si>
-    <t>射出弩箭2</t>
-  </si>
-  <si>
     <t>Bullet_Tower_Arrow_Bullet_2</t>
   </si>
   <si>
-    <t>0,2.1,0.9</t>
-  </si>
-  <si>
-    <t>射出弩箭3</t>
-  </si>
-  <si>
     <t>Bullet_Tower_Arrow_Bullet_3</t>
   </si>
   <si>
-    <t>0,2.5,0.9</t>
-  </si>
-  <si>
-    <t>射出加农炮1</t>
-  </si>
-  <si>
     <t>Bullet_Tower_Cannon_Bullet_1</t>
   </si>
   <si>
-    <t>0,1.77,0.6</t>
-  </si>
-  <si>
-    <t>射出加农炮2</t>
-  </si>
-  <si>
     <t>Bullet_Tower_Cannon_Bullet_2</t>
   </si>
   <si>
-    <t>0,1.9,0.9</t>
-  </si>
-  <si>
-    <t>射出加农炮3</t>
-  </si>
-  <si>
     <t>Bullet_Tower_Cannon_Bullet_3</t>
   </si>
   <si>
-    <t>0,2.46,0.9</t>
-  </si>
-  <si>
-    <t>射出龙击炮1</t>
-  </si>
-  <si>
     <t>Bullet_TowerDragon_Bullet1</t>
   </si>
   <si>
-    <t>0,1.244,0.572</t>
-  </si>
-  <si>
-    <t>射出龙击炮2</t>
-  </si>
-  <si>
     <t>Bullet_TowerDragon_Bullet2</t>
   </si>
   <si>
-    <t>0,1.845,0.322</t>
-  </si>
-  <si>
-    <t>射出龙击炮3</t>
-  </si>
-  <si>
     <t>Bullet_TowerDragon_Bullet3</t>
   </si>
   <si>
-    <t>0,2.272,0.39</t>
-  </si>
-  <si>
-    <t>射出冰魔塔1</t>
-  </si>
-  <si>
     <t>Bullet_TowerIce_Bullet1</t>
   </si>
   <si>
-    <t>0,2.625,0</t>
-  </si>
-  <si>
-    <t>射出冰魔塔2</t>
-  </si>
-  <si>
     <t>Bullet_TowerIce_Bullet2</t>
   </si>
   <si>
-    <t>0,3.193,0.1419</t>
-  </si>
-  <si>
-    <t>射出冰魔塔3</t>
-  </si>
-  <si>
     <t>Bullet_TowerIce_Bullet3</t>
   </si>
   <si>
-    <t>0,3.451,0.15</t>
-  </si>
-  <si>
     <t>FireBullet_TowerAoShu1</t>
   </si>
   <si>
-    <t>奥术精灵1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerAoShu1</t>
   </si>
   <si>
     <t>FireBullet_TowerAoShu2</t>
   </si>
   <si>
-    <t>奥术精灵2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerAoShu2</t>
   </si>
   <si>
     <t>FireBullet_TowerAoShu3</t>
   </si>
   <si>
-    <t>奥术精灵3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerAoShu3</t>
   </si>
   <si>
     <t>FireBullet_TowerCurse1</t>
   </si>
   <si>
-    <t>诅咒塔1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerCurse1</t>
   </si>
   <si>
-    <t>0,2.5,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerCurse2</t>
   </si>
   <si>
-    <t>诅咒塔2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerCurse2</t>
   </si>
   <si>
-    <t>0,3.2,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerCurse3</t>
   </si>
   <si>
-    <t>诅咒塔3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerCurse3</t>
   </si>
   <si>
-    <t>0,3.45,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerDuCi1</t>
   </si>
   <si>
-    <t>毒刺塔1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerDuCi1</t>
   </si>
   <si>
-    <t>0,1.3,0.72</t>
-  </si>
-  <si>
     <t>FireBullet_TowerDuCi2</t>
   </si>
   <si>
-    <t>毒刺塔2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerDuCi2</t>
   </si>
   <si>
-    <t>0,1.64,1.03</t>
-  </si>
-  <si>
     <t>FireBullet_TowerDuCi3</t>
   </si>
   <si>
-    <t>毒刺塔3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerDuCi3</t>
   </si>
   <si>
-    <t>0,2.1,1.25</t>
-  </si>
-  <si>
     <t>FireBullet_TowerElectromagnetic1</t>
   </si>
   <si>
-    <t>电磁塔1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerElectromagnetic1</t>
   </si>
   <si>
-    <t>0,1.95,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerElectromagnetic2</t>
   </si>
   <si>
-    <t>电磁塔2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerElectromagnetic2</t>
   </si>
   <si>
-    <t>0,2.4,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerElectromagnetic3</t>
   </si>
   <si>
-    <t>电磁塔3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerElectromagnetic3</t>
   </si>
   <si>
-    <t>0,2.92,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerFireBall1</t>
   </si>
   <si>
-    <t>火球塔1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerFireBall1</t>
   </si>
   <si>
-    <t>0,1.82,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerFireBall2</t>
   </si>
   <si>
-    <t>火球塔2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerFireBall2</t>
   </si>
   <si>
     <t>FireBullet_TowerFireBall3</t>
   </si>
   <si>
-    <t>火球塔3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerFireBall3</t>
   </si>
   <si>
-    <t>0,3,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerIceArrow1</t>
   </si>
   <si>
-    <t>冰枪塔1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerIceArrow1</t>
   </si>
   <si>
-    <t>0,1.835,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerIceArrow2</t>
   </si>
   <si>
-    <t>冰枪塔2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerIceArrow2</t>
   </si>
   <si>
-    <t>0,2.323,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerIceArrow3</t>
   </si>
   <si>
-    <t>冰枪塔3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerIceArrow3</t>
   </si>
   <si>
-    <t>0,2.645,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerMagicBall1</t>
   </si>
   <si>
-    <t>奥术天球1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerMagicBall1</t>
   </si>
   <si>
-    <t>0,2.22,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerMagicBall2</t>
   </si>
   <si>
-    <t>奥术天球2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerMagicBall2</t>
   </si>
   <si>
-    <t>0,2.6,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerMagicBall3</t>
   </si>
   <si>
-    <t>奥术天球3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerMagicBall3</t>
   </si>
   <si>
-    <t>0,3.1,0</t>
-  </si>
-  <si>
     <t>FireBullet_TowerRocket1</t>
   </si>
   <si>
-    <t>火箭塔1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerRocket1</t>
   </si>
   <si>
     <t>FireBullet_TowerRocket2</t>
   </si>
   <si>
-    <t>火箭塔2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerRocket2</t>
   </si>
   <si>
     <t>FireBullet_TowerRocket3</t>
   </si>
   <si>
-    <t>火箭塔3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerRocket3</t>
   </si>
   <si>
     <t>FireBullet_TowerScorpio1</t>
   </si>
   <si>
-    <t>毒蝎塔1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerScorpio1</t>
   </si>
   <si>
-    <t>0,1.64,0.42</t>
-  </si>
-  <si>
     <t>FireBullet_TowerScorpio2</t>
   </si>
   <si>
-    <t>毒蝎塔2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerScorpio2</t>
   </si>
   <si>
-    <t>0,1.7,0.34</t>
-  </si>
-  <si>
     <t>FireBullet_TowerScorpio3</t>
   </si>
   <si>
-    <t>毒蝎塔3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerScorpio3</t>
   </si>
   <si>
-    <t>0,2.2,0.82</t>
-  </si>
-  <si>
     <t>FireBullet_TowerWater1</t>
   </si>
   <si>
-    <t>水图腾1射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerWater1</t>
   </si>
   <si>
-    <t>0,1.7,0.82</t>
-  </si>
-  <si>
     <t>FireBullet_TowerWater2</t>
   </si>
   <si>
-    <t>水图腾2射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerWater2</t>
   </si>
   <si>
-    <t>0,2.3,1.17</t>
-  </si>
-  <si>
     <t>FireBullet_TowerWater3</t>
   </si>
   <si>
-    <t>水图腾3射击</t>
-  </si>
-  <si>
     <t>Bullet_TowerWater3</t>
   </si>
   <si>
-    <t>0,2.7,1.9</t>
-  </si>
-  <si>
     <t>string#ref=BulletCfgCategory</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -688,14 +460,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,1.9,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.8,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>MoveTween_Target_MagicBall</t>
   </si>
   <si>
@@ -706,15 +470,6 @@
   </si>
   <si>
     <t>Bullet_TowerFire_Bullet3</t>
-  </si>
-  <si>
-    <t>射出水晶塔1</t>
-  </si>
-  <si>
-    <t>射出水晶塔2</t>
-  </si>
-  <si>
-    <t>射出水晶塔3</t>
   </si>
   <si>
     <r>
@@ -734,18 +489,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,1.6,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1.9,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2.3,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FireBullet_1</t>
   </si>
   <si>
@@ -1199,6 +942,147 @@
       <t>2_Crit</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥术精灵1</t>
+  </si>
+  <si>
+    <t>奥术精灵2</t>
+  </si>
+  <si>
+    <t>奥术精灵3</t>
+  </si>
+  <si>
+    <t>诅咒塔1</t>
+  </si>
+  <si>
+    <t>诅咒塔2</t>
+  </si>
+  <si>
+    <t>诅咒塔3</t>
+  </si>
+  <si>
+    <t>毒刺塔1</t>
+  </si>
+  <si>
+    <t>毒刺塔2</t>
+  </si>
+  <si>
+    <t>毒刺塔3</t>
+  </si>
+  <si>
+    <t>电磁塔1</t>
+  </si>
+  <si>
+    <t>电磁塔2</t>
+  </si>
+  <si>
+    <t>电磁塔3</t>
+  </si>
+  <si>
+    <t>火球塔1</t>
+  </si>
+  <si>
+    <t>火球塔2</t>
+  </si>
+  <si>
+    <t>火球塔3</t>
+  </si>
+  <si>
+    <t>冰枪塔1</t>
+  </si>
+  <si>
+    <t>冰枪塔2</t>
+  </si>
+  <si>
+    <t>冰枪塔3</t>
+  </si>
+  <si>
+    <t>奥术天球1</t>
+  </si>
+  <si>
+    <t>奥术天球2</t>
+  </si>
+  <si>
+    <t>奥术天球3</t>
+  </si>
+  <si>
+    <t>火箭塔1</t>
+  </si>
+  <si>
+    <t>火箭塔2</t>
+  </si>
+  <si>
+    <t>火箭塔3</t>
+  </si>
+  <si>
+    <t>毒蝎塔1</t>
+  </si>
+  <si>
+    <t>毒蝎塔2</t>
+  </si>
+  <si>
+    <t>毒蝎塔3</t>
+  </si>
+  <si>
+    <t>水图腾1</t>
+  </si>
+  <si>
+    <t>水图腾2</t>
+  </si>
+  <si>
+    <t>水图腾3</t>
+  </si>
+  <si>
+    <t>加农炮1</t>
+  </si>
+  <si>
+    <t>加农炮2</t>
+  </si>
+  <si>
+    <t>加农炮3</t>
+  </si>
+  <si>
+    <t>龙击炮1</t>
+  </si>
+  <si>
+    <t>龙击炮2</t>
+  </si>
+  <si>
+    <t>龙击炮3</t>
+  </si>
+  <si>
+    <t>冰魔塔1</t>
+  </si>
+  <si>
+    <t>冰魔塔2</t>
+  </si>
+  <si>
+    <t>冰魔塔3</t>
+  </si>
+  <si>
+    <t>弩箭塔1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弩箭塔2</t>
+  </si>
+  <si>
+    <t>弩箭塔3</t>
+  </si>
+  <si>
+    <t>发射子弹</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶2</t>
+  </si>
+  <si>
+    <t>水晶3</t>
   </si>
 </sst>
 </file>
@@ -1413,6 +1297,1927 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="防御塔"/>
+      <sheetName val="怪物"/>
+      <sheetName val="技能"/>
+      <sheetName val="无限模式"/>
+      <sheetName val="挑战模式"/>
+      <sheetName val="引导"/>
+      <sheetName val="商业化"/>
+      <sheetName val="音乐音效"/>
+      <sheetName val="参考"/>
+      <sheetName val="工具"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>塔名称</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>ResUnit id</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>防御塔prefab id</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>攻击点x</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>攻击点y</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>攻击点z</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>xyz坐标</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>炼金塔1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ResUnit_TowerAlchemy1</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Alchemy1</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>炼金塔2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>ResUnit_TowerAlchemy2</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Alchemy2</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>炼金塔3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ResUnit_TowerAlchemy3</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>Alchemy3</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>诅咒塔1</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ResUnit_TowerCurse1</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>Curse1</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+          <cell r="F5">
+            <v>0</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>诅咒塔2</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>ResUnit_TowerCurse2</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>Curse2</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+          <cell r="F6">
+            <v>0</v>
+          </cell>
+          <cell r="G6" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>诅咒塔3</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>ResUnit_TowerCurse3</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>Curse3</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+          <cell r="F7">
+            <v>0</v>
+          </cell>
+          <cell r="G7" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>电磁塔1</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>ResUnit_TowerElectromagnetic1</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>Electromagnetic1</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+          <cell r="F8">
+            <v>0</v>
+          </cell>
+          <cell r="G8" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>电磁塔2</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>ResUnit_TowerElectromagnetic2</v>
+          </cell>
+          <cell r="C9" t="str">
+            <v>Electromagnetic2</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+          <cell r="F9">
+            <v>0</v>
+          </cell>
+          <cell r="G9" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>电磁塔3</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>ResUnit_TowerElectromagnetic3</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>Electromagnetic3</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>0</v>
+          </cell>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>火焰塔1</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>ResUnit_Tower_FireLine_1</v>
+          </cell>
+          <cell r="C11" t="str">
+            <v>FE_moth_1</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>1.4</v>
+          </cell>
+          <cell r="F11">
+            <v>0</v>
+          </cell>
+          <cell r="G11" t="str">
+            <v>0,1.4,0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>火焰塔2</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>ResUnit_Tower_FireLine_2</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>FE_moth_2</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>1.4</v>
+          </cell>
+          <cell r="F12">
+            <v>0</v>
+          </cell>
+          <cell r="G12" t="str">
+            <v>0,1.4,0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>火焰塔3</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>ResUnit_Tower_FireLine_3</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>FE_moth_3</v>
+          </cell>
+          <cell r="D13">
+            <v>0</v>
+          </cell>
+          <cell r="E13">
+            <v>1.2</v>
+          </cell>
+          <cell r="F13">
+            <v>0</v>
+          </cell>
+          <cell r="G13" t="str">
+            <v>0,1.2,0</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>火图腾1</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>ResUnit_TowerFire1</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>Fire1</v>
+          </cell>
+          <cell r="D14">
+            <v>0</v>
+          </cell>
+          <cell r="E14">
+            <v>1.5</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="G14" t="str">
+            <v>0,1.5,0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>火图腾2</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>ResUnit_TowerFire2</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>Fire2</v>
+          </cell>
+          <cell r="D15">
+            <v>0</v>
+          </cell>
+          <cell r="E15">
+            <v>1.5</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15" t="str">
+            <v>0,1.5,0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>火图腾3</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>ResUnit_TowerFire3</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>Fire3</v>
+          </cell>
+          <cell r="D16">
+            <v>0</v>
+          </cell>
+          <cell r="E16">
+            <v>1.5</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="G16" t="str">
+            <v>0,1.5,0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>魔像1</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>ResUnit_Golem1</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>Golem1</v>
+          </cell>
+          <cell r="D17">
+            <v>0.6</v>
+          </cell>
+          <cell r="E17">
+            <v>1</v>
+          </cell>
+          <cell r="F17">
+            <v>1.5</v>
+          </cell>
+          <cell r="G17" t="str">
+            <v>0.6,1,1.5</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>魔像2</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>ResUnit_Golem2</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>Golem2</v>
+          </cell>
+          <cell r="D18">
+            <v>0.5</v>
+          </cell>
+          <cell r="E18">
+            <v>0.95</v>
+          </cell>
+          <cell r="F18">
+            <v>1.5</v>
+          </cell>
+          <cell r="G18" t="str">
+            <v>0.5,0.95,1.5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>魔像3</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>ResUnit_Golem3</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>Golem3</v>
+          </cell>
+          <cell r="D19">
+            <v>0.45</v>
+          </cell>
+          <cell r="E19">
+            <v>0.85</v>
+          </cell>
+          <cell r="F19">
+            <v>1.5</v>
+          </cell>
+          <cell r="G19" t="str">
+            <v>0.45,0.85,1.5</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>加农炮1</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>ResUnit_Tower_Canon_1</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>HM_cannon_1</v>
+          </cell>
+          <cell r="D20">
+            <v>0</v>
+          </cell>
+          <cell r="E20">
+            <v>1.55</v>
+          </cell>
+          <cell r="F20">
+            <v>0.5</v>
+          </cell>
+          <cell r="G20" t="str">
+            <v>0,1.55,0.5</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>加农炮2</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>ResUnit_Tower_Canon_2</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>HM_cannon_2</v>
+          </cell>
+          <cell r="D21">
+            <v>0</v>
+          </cell>
+          <cell r="E21">
+            <v>1.45</v>
+          </cell>
+          <cell r="F21">
+            <v>0.7</v>
+          </cell>
+          <cell r="G21" t="str">
+            <v>0,1.45,0.7</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>加农炮3</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>ResUnit_Tower_Canon_3</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>HM_cannon_3</v>
+          </cell>
+          <cell r="D22">
+            <v>0</v>
+          </cell>
+          <cell r="E22">
+            <v>1.45</v>
+          </cell>
+          <cell r="F22">
+            <v>0.7</v>
+          </cell>
+          <cell r="G22" t="str">
+            <v>0,1.45,0.7</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>弩箭塔1</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>ResUnit_Tower_ArrowSolo_1</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>HM_crossbow_1</v>
+          </cell>
+          <cell r="D23">
+            <v>0</v>
+          </cell>
+          <cell r="E23">
+            <v>1.6</v>
+          </cell>
+          <cell r="F23">
+            <v>0.8</v>
+          </cell>
+          <cell r="G23" t="str">
+            <v>0,1.6,0.8</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>弩箭塔2</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>ResUnit_Tower_ArrowSolo_2</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>HM_crossbow_2</v>
+          </cell>
+          <cell r="D24">
+            <v>0</v>
+          </cell>
+          <cell r="E24">
+            <v>1.65</v>
+          </cell>
+          <cell r="F24">
+            <v>0.70299999999999996</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>0,1.65,0.703</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>弩箭塔3</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>ResUnit_Tower_ArrowSolo_3</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>HM_crossbow_3</v>
+          </cell>
+          <cell r="D25">
+            <v>0</v>
+          </cell>
+          <cell r="E25">
+            <v>1.6319999999999999</v>
+          </cell>
+          <cell r="F25">
+            <v>0.64</v>
+          </cell>
+          <cell r="G25" t="str">
+            <v>0,1.632,0.64</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>毒雾塔1</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>ResUnit_Tower_DragCircle_1</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>HM_poison_1</v>
+          </cell>
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+          <cell r="F26">
+            <v>0</v>
+          </cell>
+          <cell r="G26" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>毒雾塔2</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>ResUnit_Tower_DragCircle_2</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>HM_poison_2</v>
+          </cell>
+          <cell r="D27">
+            <v>0</v>
+          </cell>
+          <cell r="E27">
+            <v>0</v>
+          </cell>
+          <cell r="F27">
+            <v>0</v>
+          </cell>
+          <cell r="G27" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>毒雾塔3</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>ResUnit_Tower_DragCircle_3</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>HM_poison_3</v>
+          </cell>
+          <cell r="D28">
+            <v>0</v>
+          </cell>
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+          <cell r="F28">
+            <v>0</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>冰枪塔1</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>ResUnit_TowerIceArrow1</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>Ice1</v>
+          </cell>
+          <cell r="D29">
+            <v>0</v>
+          </cell>
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+          <cell r="F29">
+            <v>0</v>
+          </cell>
+          <cell r="G29" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>冰枪塔2</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>ResUnit_TowerIceArrow2</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>Ice2</v>
+          </cell>
+          <cell r="D30">
+            <v>0</v>
+          </cell>
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+          <cell r="F30">
+            <v>0</v>
+          </cell>
+          <cell r="G30" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>冰枪塔3</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>ResUnit_TowerIceArrow3</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>Ice3</v>
+          </cell>
+          <cell r="D31">
+            <v>0</v>
+          </cell>
+          <cell r="E31">
+            <v>0</v>
+          </cell>
+          <cell r="F31">
+            <v>0</v>
+          </cell>
+          <cell r="G31" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>奥术天球1</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>ResUnit_TowerMagicBall1</v>
+          </cell>
+          <cell r="C32" t="str">
+            <v>Magicball1</v>
+          </cell>
+          <cell r="D32">
+            <v>0</v>
+          </cell>
+          <cell r="E32">
+            <v>2.407</v>
+          </cell>
+          <cell r="F32">
+            <v>0</v>
+          </cell>
+          <cell r="G32" t="str">
+            <v>0,2.407,0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>奥术天球2</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>ResUnit_TowerMagicBall2</v>
+          </cell>
+          <cell r="C33" t="str">
+            <v>Magicball2</v>
+          </cell>
+          <cell r="D33">
+            <v>0</v>
+          </cell>
+          <cell r="E33">
+            <v>2.3199999999999998</v>
+          </cell>
+          <cell r="F33">
+            <v>0</v>
+          </cell>
+          <cell r="G33" t="str">
+            <v>0,2.32,0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>奥术天球3</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>ResUnit_TowerMagicBall3</v>
+          </cell>
+          <cell r="C34" t="str">
+            <v>Magicball3</v>
+          </cell>
+          <cell r="D34">
+            <v>0</v>
+          </cell>
+          <cell r="E34">
+            <v>2.25</v>
+          </cell>
+          <cell r="F34">
+            <v>0</v>
+          </cell>
+          <cell r="G34" t="str">
+            <v>0,2.25,0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>毒蝎塔1</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>ResUnit_TowerScorpio1</v>
+          </cell>
+          <cell r="C35" t="str">
+            <v>Scorpio1</v>
+          </cell>
+          <cell r="D35">
+            <v>0</v>
+          </cell>
+          <cell r="E35">
+            <v>1.67</v>
+          </cell>
+          <cell r="F35">
+            <v>0.313</v>
+          </cell>
+          <cell r="G35" t="str">
+            <v>0,1.67,0.313</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>毒蝎塔2</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>ResUnit_TowerScorpio2</v>
+          </cell>
+          <cell r="C36" t="str">
+            <v>Scorpio2</v>
+          </cell>
+          <cell r="D36">
+            <v>0</v>
+          </cell>
+          <cell r="E36">
+            <v>1.448</v>
+          </cell>
+          <cell r="F36">
+            <v>0.17499999999999999</v>
+          </cell>
+          <cell r="G36" t="str">
+            <v>0,1.448,0.175</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>毒蝎塔3</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>ResUnit_TowerScorpio3</v>
+          </cell>
+          <cell r="C37" t="str">
+            <v>Scorpio3</v>
+          </cell>
+          <cell r="D37">
+            <v>0</v>
+          </cell>
+          <cell r="E37">
+            <v>1.4750000000000001</v>
+          </cell>
+          <cell r="F37">
+            <v>0.438</v>
+          </cell>
+          <cell r="G37" t="str">
+            <v>0,1.475,0.438</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>奥术精灵1</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>ResUnit_TowerAoShu1</v>
+          </cell>
+          <cell r="C38" t="str">
+            <v>TowerAoShu1</v>
+          </cell>
+          <cell r="D38">
+            <v>0</v>
+          </cell>
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+          <cell r="F38">
+            <v>0</v>
+          </cell>
+          <cell r="G38" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>奥术精灵2</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>ResUnit_TowerAoShu2</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>TowerAoShu2</v>
+          </cell>
+          <cell r="D39">
+            <v>0</v>
+          </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+          <cell r="F39">
+            <v>0</v>
+          </cell>
+          <cell r="G39" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>奥术精灵3</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>ResUnit_TowerAoShu3</v>
+          </cell>
+          <cell r="C40" t="str">
+            <v>TowerAoShu3</v>
+          </cell>
+          <cell r="D40">
+            <v>0</v>
+          </cell>
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+          <cell r="F40">
+            <v>0</v>
+          </cell>
+          <cell r="G40" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>炸弹1</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>ResUnit_Bomb1</v>
+          </cell>
+          <cell r="C41" t="str">
+            <v>TowerBomb1</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+          <cell r="E41">
+            <v>1.2310000000000001</v>
+          </cell>
+          <cell r="F41">
+            <v>0</v>
+          </cell>
+          <cell r="G41" t="str">
+            <v>0,1.231,0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>炸弹2</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>ResUnit_Bomb2</v>
+          </cell>
+          <cell r="C42" t="str">
+            <v>TowerBomb2</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+          <cell r="E42">
+            <v>1.2070000000000001</v>
+          </cell>
+          <cell r="F42">
+            <v>0</v>
+          </cell>
+          <cell r="G42" t="str">
+            <v>0,1.207,0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>炸弹3</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>ResUnit_Bomb3</v>
+          </cell>
+          <cell r="C43" t="str">
+            <v>TowerBomb3</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+          <cell r="E43">
+            <v>1.046</v>
+          </cell>
+          <cell r="F43">
+            <v>0</v>
+          </cell>
+          <cell r="G43" t="str">
+            <v>0,1.046,0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>龙击炮1</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>ResUnit_TowerDragon1</v>
+          </cell>
+          <cell r="C44" t="str">
+            <v>TowerDragon1</v>
+          </cell>
+          <cell r="D44">
+            <v>0</v>
+          </cell>
+          <cell r="E44">
+            <v>1.266</v>
+          </cell>
+          <cell r="F44">
+            <v>0.49399999999999999</v>
+          </cell>
+          <cell r="G44" t="str">
+            <v>0,1.266,0.494</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>龙击炮2</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>ResUnit_TowerDragon2</v>
+          </cell>
+          <cell r="C45" t="str">
+            <v>TowerDragon2</v>
+          </cell>
+          <cell r="D45">
+            <v>0</v>
+          </cell>
+          <cell r="E45">
+            <v>1.478</v>
+          </cell>
+          <cell r="F45">
+            <v>0.35699999999999998</v>
+          </cell>
+          <cell r="G45" t="str">
+            <v>0,1.478,0.357</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>龙击炮3</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>ResUnit_TowerDragon3</v>
+          </cell>
+          <cell r="C46" t="str">
+            <v>TowerDragon3</v>
+          </cell>
+          <cell r="D46">
+            <v>0</v>
+          </cell>
+          <cell r="E46">
+            <v>1.2849999999999999</v>
+          </cell>
+          <cell r="F46">
+            <v>0.38400000000000001</v>
+          </cell>
+          <cell r="G46" t="str">
+            <v>0,1.285,0.384</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>毒刺塔1</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>ResUnit_TowerDuCi1</v>
+          </cell>
+          <cell r="C47" t="str">
+            <v>TowerDuCi1</v>
+          </cell>
+          <cell r="D47">
+            <v>0</v>
+          </cell>
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+          <cell r="F47">
+            <v>0</v>
+          </cell>
+          <cell r="G47" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>毒刺塔2</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>ResUnit_TowerDuCi2</v>
+          </cell>
+          <cell r="C48" t="str">
+            <v>TowerDuCi2</v>
+          </cell>
+          <cell r="D48">
+            <v>0</v>
+          </cell>
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+          <cell r="F48">
+            <v>0</v>
+          </cell>
+          <cell r="G48" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>毒刺塔3</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>ResUnit_TowerDuCi3</v>
+          </cell>
+          <cell r="C49" t="str">
+            <v>TowerDuCi3</v>
+          </cell>
+          <cell r="D49">
+            <v>0</v>
+          </cell>
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+          <cell r="F49">
+            <v>0</v>
+          </cell>
+          <cell r="G49" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>雷电塔1</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>ResUnit_TowerElec1</v>
+          </cell>
+          <cell r="C50" t="str">
+            <v>TowerElec1</v>
+          </cell>
+          <cell r="D50">
+            <v>0</v>
+          </cell>
+          <cell r="E50">
+            <v>2.3650000000000002</v>
+          </cell>
+          <cell r="F50">
+            <v>0</v>
+          </cell>
+          <cell r="G50" t="str">
+            <v>0,2.365,0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>雷电塔2</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>ResUnit_TowerElec2</v>
+          </cell>
+          <cell r="C51" t="str">
+            <v>TowerElec2</v>
+          </cell>
+          <cell r="D51">
+            <v>0</v>
+          </cell>
+          <cell r="E51">
+            <v>2.113</v>
+          </cell>
+          <cell r="F51">
+            <v>0</v>
+          </cell>
+          <cell r="G51" t="str">
+            <v>0,2.113,0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>雷电塔3</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>ResUnit_TowerElec3</v>
+          </cell>
+          <cell r="C52" t="str">
+            <v>TowerElec3</v>
+          </cell>
+          <cell r="D52">
+            <v>0</v>
+          </cell>
+          <cell r="E52">
+            <v>0.2641</v>
+          </cell>
+          <cell r="F52">
+            <v>0</v>
+          </cell>
+          <cell r="G52" t="str">
+            <v>0,0.2641,0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>火球塔1</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>ResUnit_TowerFireBall1</v>
+          </cell>
+          <cell r="C53" t="str">
+            <v>TowerFireBall1</v>
+          </cell>
+          <cell r="D53">
+            <v>0</v>
+          </cell>
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+          <cell r="F53">
+            <v>0</v>
+          </cell>
+          <cell r="G53" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>火球塔2</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>ResUnit_TowerFireBall2</v>
+          </cell>
+          <cell r="C54" t="str">
+            <v>TowerFireBall2</v>
+          </cell>
+          <cell r="D54">
+            <v>0</v>
+          </cell>
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+          <cell r="F54">
+            <v>0</v>
+          </cell>
+          <cell r="G54" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>火球塔3</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>ResUnit_TowerFireBall3</v>
+          </cell>
+          <cell r="C55" t="str">
+            <v>TowerFireBall3</v>
+          </cell>
+          <cell r="D55">
+            <v>0</v>
+          </cell>
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+          <cell r="F55">
+            <v>0</v>
+          </cell>
+          <cell r="G55" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>窃贼哥布林1</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>ResUnit_TowerGoblin1</v>
+          </cell>
+          <cell r="C56" t="str">
+            <v>TowerGoblin1</v>
+          </cell>
+          <cell r="D56">
+            <v>0</v>
+          </cell>
+          <cell r="E56">
+            <v>1.869</v>
+          </cell>
+          <cell r="F56">
+            <v>0</v>
+          </cell>
+          <cell r="G56" t="str">
+            <v>0,1.869,0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>窃贼哥布林2</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>ResUnit_TowerGoblin2</v>
+          </cell>
+          <cell r="C57" t="str">
+            <v>TowerGoblin2</v>
+          </cell>
+          <cell r="D57">
+            <v>0</v>
+          </cell>
+          <cell r="E57">
+            <v>1.8140000000000001</v>
+          </cell>
+          <cell r="F57">
+            <v>0</v>
+          </cell>
+          <cell r="G57" t="str">
+            <v>0,1.814,0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>窃贼哥布林3</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>ResUnit_TowerGoblin3</v>
+          </cell>
+          <cell r="C58" t="str">
+            <v>TowerGoblin3</v>
+          </cell>
+          <cell r="D58">
+            <v>0</v>
+          </cell>
+          <cell r="E58">
+            <v>1.8520000000000001</v>
+          </cell>
+          <cell r="F58">
+            <v>0</v>
+          </cell>
+          <cell r="G58" t="str">
+            <v>0,1.852,0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>冰魔塔1</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>ResUnit_TowerIce1</v>
+          </cell>
+          <cell r="C59" t="str">
+            <v>TowerIce1</v>
+          </cell>
+          <cell r="D59">
+            <v>0</v>
+          </cell>
+          <cell r="E59">
+            <v>1.9019999999999999</v>
+          </cell>
+          <cell r="F59">
+            <v>0</v>
+          </cell>
+          <cell r="G59" t="str">
+            <v>0,1.902,0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>冰魔塔2</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>ResUnit_TowerIce2</v>
+          </cell>
+          <cell r="C60" t="str">
+            <v>TowerIce2</v>
+          </cell>
+          <cell r="D60">
+            <v>0</v>
+          </cell>
+          <cell r="E60">
+            <v>1.8660000000000001</v>
+          </cell>
+          <cell r="F60">
+            <v>0</v>
+          </cell>
+          <cell r="G60" t="str">
+            <v>0,1.866,0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>冰魔塔3</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>ResUnit_TowerIce3</v>
+          </cell>
+          <cell r="C61" t="str">
+            <v>TowerIce3</v>
+          </cell>
+          <cell r="D61">
+            <v>0</v>
+          </cell>
+          <cell r="E61">
+            <v>1.6579999999999999</v>
+          </cell>
+          <cell r="F61">
+            <v>0</v>
+          </cell>
+          <cell r="G61" t="str">
+            <v>0,1.658,0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>连击斧1</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>ResUnit_TowerLianJi1</v>
+          </cell>
+          <cell r="C62" t="str">
+            <v>TowerLianJi1</v>
+          </cell>
+          <cell r="D62">
+            <v>0</v>
+          </cell>
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+          <cell r="F62">
+            <v>0</v>
+          </cell>
+          <cell r="G62" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>连击斧2</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>ResUnit_TowerLianJi2</v>
+          </cell>
+          <cell r="C63" t="str">
+            <v>TowerLianJi2</v>
+          </cell>
+          <cell r="D63">
+            <v>0</v>
+          </cell>
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+          <cell r="F63">
+            <v>0</v>
+          </cell>
+          <cell r="G63" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>连击斧3</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>ResUnit_TowerLianJi3</v>
+          </cell>
+          <cell r="C64" t="str">
+            <v>TowerLianJi3</v>
+          </cell>
+          <cell r="D64">
+            <v>0</v>
+          </cell>
+          <cell r="E64">
+            <v>0</v>
+          </cell>
+          <cell r="F64">
+            <v>0</v>
+          </cell>
+          <cell r="G64" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>火箭塔1</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>ResUnit_TowerRocket1</v>
+          </cell>
+          <cell r="C65" t="str">
+            <v>TowerRocket1</v>
+          </cell>
+          <cell r="D65">
+            <v>0</v>
+          </cell>
+          <cell r="E65">
+            <v>1.843</v>
+          </cell>
+          <cell r="F65">
+            <v>0.157</v>
+          </cell>
+          <cell r="G65" t="str">
+            <v>0,1.843,0.157</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>火箭塔2</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>ResUnit_TowerRocket2</v>
+          </cell>
+          <cell r="C66" t="str">
+            <v>TowerRocket2</v>
+          </cell>
+          <cell r="D66">
+            <v>0</v>
+          </cell>
+          <cell r="E66">
+            <v>1.7609999999999999</v>
+          </cell>
+          <cell r="F66">
+            <v>0.32900000000000001</v>
+          </cell>
+          <cell r="G66" t="str">
+            <v>0,1.761,0.329</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>火箭塔3</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>ResUnit_TowerRocket3</v>
+          </cell>
+          <cell r="C67" t="str">
+            <v>TowerRocket3</v>
+          </cell>
+          <cell r="D67">
+            <v>0</v>
+          </cell>
+          <cell r="E67">
+            <v>1.6839999999999999</v>
+          </cell>
+          <cell r="F67">
+            <v>0.312</v>
+          </cell>
+          <cell r="G67" t="str">
+            <v>0,1.684,0.312</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>加速塔1</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>ResUnit_TowerTime1</v>
+          </cell>
+          <cell r="C68" t="str">
+            <v>TowerTime1</v>
+          </cell>
+          <cell r="D68">
+            <v>0</v>
+          </cell>
+          <cell r="E68">
+            <v>0</v>
+          </cell>
+          <cell r="F68">
+            <v>0</v>
+          </cell>
+          <cell r="G68" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>加速塔2</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>ResUnit_TowerTime2</v>
+          </cell>
+          <cell r="C69" t="str">
+            <v>TowerTime2</v>
+          </cell>
+          <cell r="D69">
+            <v>0</v>
+          </cell>
+          <cell r="E69">
+            <v>0</v>
+          </cell>
+          <cell r="F69">
+            <v>0</v>
+          </cell>
+          <cell r="G69" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
+            <v>加速塔3</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>ResUnit_TowerTime3</v>
+          </cell>
+          <cell r="C70" t="str">
+            <v>TowerTime3</v>
+          </cell>
+          <cell r="D70">
+            <v>0</v>
+          </cell>
+          <cell r="E70">
+            <v>0</v>
+          </cell>
+          <cell r="F70">
+            <v>0</v>
+          </cell>
+          <cell r="G70" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>灾厄塔1</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>ResUnit_TowerZaiE1</v>
+          </cell>
+          <cell r="C71" t="str">
+            <v>TowerZaiE1</v>
+          </cell>
+          <cell r="D71">
+            <v>0</v>
+          </cell>
+          <cell r="E71">
+            <v>0</v>
+          </cell>
+          <cell r="F71">
+            <v>0</v>
+          </cell>
+          <cell r="G71" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>灾厄塔2</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>ResUnit_TowerZaiE2</v>
+          </cell>
+          <cell r="C72" t="str">
+            <v>TowerZaiE2</v>
+          </cell>
+          <cell r="D72">
+            <v>0</v>
+          </cell>
+          <cell r="E72">
+            <v>0</v>
+          </cell>
+          <cell r="F72">
+            <v>0</v>
+          </cell>
+          <cell r="G72" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>灾厄塔3</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>ResUnit_TowerZaiE3</v>
+          </cell>
+          <cell r="C73" t="str">
+            <v>TowerZaiE3</v>
+          </cell>
+          <cell r="D73">
+            <v>0</v>
+          </cell>
+          <cell r="E73">
+            <v>0</v>
+          </cell>
+          <cell r="F73">
+            <v>0</v>
+          </cell>
+          <cell r="G73" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>水图腾1</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>ResUnit_TowerWater1</v>
+          </cell>
+          <cell r="C74" t="str">
+            <v>Water1</v>
+          </cell>
+          <cell r="D74">
+            <v>0</v>
+          </cell>
+          <cell r="E74">
+            <v>0</v>
+          </cell>
+          <cell r="F74">
+            <v>0</v>
+          </cell>
+          <cell r="G74" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>水图腾2</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>ResUnit_TowerWater2</v>
+          </cell>
+          <cell r="C75" t="str">
+            <v>Water2</v>
+          </cell>
+          <cell r="D75">
+            <v>0</v>
+          </cell>
+          <cell r="E75">
+            <v>0</v>
+          </cell>
+          <cell r="F75">
+            <v>0</v>
+          </cell>
+          <cell r="G75" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>水图腾3</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>ResUnit_TowerWater3</v>
+          </cell>
+          <cell r="C76" t="str">
+            <v>Water3</v>
+          </cell>
+          <cell r="D76">
+            <v>0</v>
+          </cell>
+          <cell r="E76">
+            <v>0</v>
+          </cell>
+          <cell r="F76">
+            <v>0</v>
+          </cell>
+          <cell r="G76" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>巫毒塔1</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>ResUnit_Towerwitch1</v>
+          </cell>
+          <cell r="C77" t="str">
+            <v>Witch1</v>
+          </cell>
+          <cell r="D77">
+            <v>0</v>
+          </cell>
+          <cell r="E77">
+            <v>0</v>
+          </cell>
+          <cell r="F77">
+            <v>0</v>
+          </cell>
+          <cell r="G77" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>巫毒塔2</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>ResUnit_Towerwitch2</v>
+          </cell>
+          <cell r="C78" t="str">
+            <v>Witch2</v>
+          </cell>
+          <cell r="D78">
+            <v>0</v>
+          </cell>
+          <cell r="E78">
+            <v>0</v>
+          </cell>
+          <cell r="F78">
+            <v>0</v>
+          </cell>
+          <cell r="G78" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>巫毒塔3</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>ResUnit_Towerwitch3</v>
+          </cell>
+          <cell r="C79" t="str">
+            <v>Witch3</v>
+          </cell>
+          <cell r="D79">
+            <v>0</v>
+          </cell>
+          <cell r="E79">
+            <v>0</v>
+          </cell>
+          <cell r="F79">
+            <v>0</v>
+          </cell>
+          <cell r="G79" t="str">
+            <v>0,0,0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>水晶1</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>ResUnit_TowerFire1</v>
+          </cell>
+          <cell r="C80" t="str">
+            <v>Fire1</v>
+          </cell>
+          <cell r="D80">
+            <v>0</v>
+          </cell>
+          <cell r="E80">
+            <v>1.5</v>
+          </cell>
+          <cell r="F80">
+            <v>0</v>
+          </cell>
+          <cell r="G80" t="str">
+            <v>0,1.5,0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>水晶2</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>ResUnit_TowerFire2</v>
+          </cell>
+          <cell r="C81" t="str">
+            <v>Fire2</v>
+          </cell>
+          <cell r="D81">
+            <v>0</v>
+          </cell>
+          <cell r="E81">
+            <v>1.5</v>
+          </cell>
+          <cell r="F81">
+            <v>0</v>
+          </cell>
+          <cell r="G81" t="str">
+            <v>0,1.5,0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>水晶3</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>ResUnit_TowerFire3</v>
+          </cell>
+          <cell r="C82" t="str">
+            <v>Fire3</v>
+          </cell>
+          <cell r="D82">
+            <v>0</v>
+          </cell>
+          <cell r="E82">
+            <v>1.5</v>
+          </cell>
+          <cell r="F82">
+            <v>0</v>
+          </cell>
+          <cell r="G82" t="str">
+            <v>0,1.5,0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1676,10 +3481,10 @@
   <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K58" sqref="K58:K60"/>
+      <selection pane="bottomRight" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1719,7 +3524,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="16"/>
       <c r="K1" s="9" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="L1"/>
       <c r="M1"/>
@@ -1752,10 +3557,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="K2" s="7"/>
       <c r="L2"/>
@@ -1787,7 +3592,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -1799,7 +3604,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
       <c r="K3" s="10" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -1876,7 +3681,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>24</v>
@@ -1898,7 +3703,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>25</v>
@@ -1914,12 +3719,12 @@
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="12" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>213</v>
+        <v>128</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>27</v>
@@ -1935,12 +3740,12 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>29</v>
@@ -1952,12 +3757,12 @@
         <v>50</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>191</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>31</v>
@@ -1969,12 +3774,12 @@
         <v>50</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>31</v>
@@ -1986,12 +3791,12 @@
         <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>193</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>31</v>
@@ -2003,12 +3808,12 @@
         <v>50</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>33</v>
@@ -2020,12 +3825,12 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>35</v>
@@ -2037,12 +3842,12 @@
         <v>10</v>
       </c>
       <c r="K13" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>37</v>
@@ -2054,1086 +3859,1270 @@
         <v>10</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>194</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C15" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
-      </c>
       <c r="F15" s="6">
         <v>10</v>
       </c>
-      <c r="H15" t="s">
-        <v>41</v>
+      <c r="H15" t="str">
+        <f>VLOOKUP(C15,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.6,0.8</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>222</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>137</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F16" s="6">
         <v>10</v>
       </c>
-      <c r="H16" t="s">
-        <v>44</v>
+      <c r="H16" t="str">
+        <f>VLOOKUP(C16,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.65,0.703</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>45</v>
+        <v>138</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F17" s="6">
         <v>10</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
+      <c r="H17" t="str">
+        <f>VLOOKUP(C17,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.632,0.64</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>268</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F18" s="6">
         <v>10</v>
       </c>
-      <c r="H18" t="s">
-        <v>50</v>
+      <c r="H18" t="str">
+        <f>VLOOKUP(C18,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.55,0.5</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>225</v>
+        <v>140</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>51</v>
+        <v>269</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6">
         <v>10</v>
       </c>
-      <c r="H19" t="s">
-        <v>53</v>
+      <c r="H19" t="str">
+        <f>VLOOKUP(C19,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.45,0.7</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
-        <v>321</v>
+        <v>236</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>54</v>
+        <v>270</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>322</v>
+        <v>237</v>
       </c>
       <c r="F20" s="6">
         <v>10</v>
       </c>
-      <c r="H20" t="s">
-        <v>53</v>
+      <c r="H20" t="str">
+        <f>VLOOKUP(C20,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.45,0.7</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>270</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F21" s="6">
         <v>10</v>
       </c>
-      <c r="H21" t="s">
-        <v>56</v>
+      <c r="H21" t="str">
+        <f>VLOOKUP(C21,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.45,0.7</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>271</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F22" s="6">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
-        <v>59</v>
+      <c r="H22" t="str">
+        <f>VLOOKUP(C22,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.266,0.494</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>228</v>
+        <v>143</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>60</v>
+        <v>272</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F23" s="6">
         <v>10</v>
       </c>
-      <c r="H23" t="s">
-        <v>62</v>
+      <c r="H23" t="str">
+        <f>VLOOKUP(C23,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.478,0.357</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>229</v>
+        <v>144</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>63</v>
+        <v>273</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="F24" s="6">
         <v>10</v>
       </c>
-      <c r="H24" t="s">
-        <v>65</v>
+      <c r="H24" t="str">
+        <f>VLOOKUP(C24,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.285,0.384</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>230</v>
+        <v>145</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
+        <v>274</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="F25" s="6">
         <v>10</v>
       </c>
-      <c r="H25" t="s">
-        <v>68</v>
+      <c r="H25" t="str">
+        <f>VLOOKUP(C25,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.902,0</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>275</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="F26" s="6">
         <v>10</v>
       </c>
-      <c r="H26" t="s">
-        <v>71</v>
+      <c r="H26" t="str">
+        <f>VLOOKUP(C26,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.866,0</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>232</v>
+        <v>147</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>72</v>
+        <v>276</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="F27" s="6">
         <v>10</v>
       </c>
-      <c r="H27" t="s">
-        <v>74</v>
+      <c r="H27" t="str">
+        <f>VLOOKUP(C27,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.658,0</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>238</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="F28" s="6">
         <v>10</v>
       </c>
-      <c r="H28" t="s">
-        <v>50</v>
+      <c r="H28" t="str">
+        <f>VLOOKUP(C28,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>239</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="F29" s="6">
         <v>10</v>
       </c>
-      <c r="H29" t="s">
-        <v>50</v>
+      <c r="H29" t="str">
+        <f>VLOOKUP(C29,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>240</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F30" s="6">
         <v>10</v>
       </c>
-      <c r="H30" t="s">
-        <v>50</v>
+      <c r="H30" t="str">
+        <f>VLOOKUP(C30,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>241</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F31" s="6">
         <v>10</v>
       </c>
-      <c r="H31" t="s">
-        <v>87</v>
+      <c r="H31" t="str">
+        <f>VLOOKUP(C31,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>242</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F32" s="6">
         <v>10</v>
       </c>
-      <c r="H32" t="s">
-        <v>91</v>
+      <c r="H32" t="str">
+        <f>VLOOKUP(C32,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>243</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="F33" s="6">
         <v>10</v>
       </c>
-      <c r="H33" t="s">
-        <v>95</v>
+      <c r="H33" t="str">
+        <f>VLOOKUP(C33,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>244</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="F34" s="6">
         <v>10</v>
       </c>
-      <c r="H34" t="s">
-        <v>99</v>
+      <c r="H34" t="str">
+        <f>VLOOKUP(C34,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>245</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6">
         <v>10</v>
       </c>
-      <c r="H35" t="s">
-        <v>103</v>
+      <c r="H35" t="str">
+        <f>VLOOKUP(C35,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>246</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F36" s="6">
         <v>10</v>
       </c>
-      <c r="H36" t="s">
-        <v>107</v>
+      <c r="H36" t="str">
+        <f>VLOOKUP(C36,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>109</v>
+        <v>247</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="F37" s="6">
         <v>10</v>
       </c>
-      <c r="H37" t="s">
-        <v>111</v>
+      <c r="H37" t="str">
+        <f>VLOOKUP(C37,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>248</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F38" s="6">
         <v>10</v>
       </c>
-      <c r="H38" t="s">
-        <v>115</v>
+      <c r="H38" t="str">
+        <f>VLOOKUP(C38,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>249</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="F39" s="6">
         <v>10</v>
       </c>
-      <c r="H39" t="s">
-        <v>119</v>
+      <c r="H39" t="str">
+        <f>VLOOKUP(C39,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>250</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F40" s="6">
         <v>10</v>
       </c>
-      <c r="H40" t="s">
-        <v>123</v>
+      <c r="H40" t="str">
+        <f>VLOOKUP(C40,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>251</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F41" s="6">
         <v>10</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" t="str">
+        <f>VLOOKUP(C41,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
+      </c>
+      <c r="K41" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>128</v>
+        <v>252</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="F42" s="6">
         <v>10</v>
       </c>
-      <c r="H42" t="s">
-        <v>130</v>
+      <c r="H42" t="str">
+        <f>VLOOKUP(C42,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>253</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>82</v>
       </c>
       <c r="F43" s="6">
         <v>10</v>
       </c>
-      <c r="H43" t="s">
-        <v>134</v>
+      <c r="H43" t="str">
+        <f>VLOOKUP(C43,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>135</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>136</v>
+        <v>254</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>84</v>
       </c>
       <c r="F44" s="6">
         <v>10</v>
       </c>
-      <c r="H44" t="s">
-        <v>138</v>
+      <c r="H44" t="str">
+        <f>VLOOKUP(C44,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>255</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F45" s="6">
         <v>10</v>
       </c>
-      <c r="H45" t="s">
-        <v>142</v>
+      <c r="H45" t="str">
+        <f>VLOOKUP(C45,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>256</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="F46" s="6">
         <v>10</v>
       </c>
-      <c r="H46" t="s">
-        <v>146</v>
+      <c r="H46" t="str">
+        <f>VLOOKUP(C46,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,2.407,0</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
+        <v>257</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="F47" s="6">
         <v>10</v>
       </c>
-      <c r="H47" t="s">
-        <v>150</v>
+      <c r="H47" t="str">
+        <f>VLOOKUP(C47,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,2.32,0</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>151</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>258</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>153</v>
+        <v>92</v>
       </c>
       <c r="F48" s="6">
         <v>10</v>
       </c>
-      <c r="H48" t="s">
-        <v>154</v>
+      <c r="H48" t="str">
+        <f>VLOOKUP(C48,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,2.25,0</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>156</v>
+        <v>259</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="F49" s="6">
         <v>10</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>198</v>
+      <c r="H49" t="str">
+        <f>VLOOKUP(C49,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.843,0.157</v>
       </c>
       <c r="K49" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>159</v>
+        <v>260</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E50" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
       <c r="F50" s="6">
         <v>10</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>199</v>
+      <c r="H50" t="str">
+        <f>VLOOKUP(C50,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.761,0.329</v>
       </c>
       <c r="K50" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="C51" t="s">
-        <v>162</v>
+        <v>261</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E51" t="s">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c r="F51" s="6">
         <v>10</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>200</v>
+      <c r="H51" t="str">
+        <f>VLOOKUP(C51,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.684,0.312</v>
       </c>
       <c r="K51" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>262</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>100</v>
       </c>
       <c r="F52" s="6">
         <v>10</v>
       </c>
-      <c r="H52" t="s">
-        <v>167</v>
+      <c r="H52" t="str">
+        <f>VLOOKUP(C52,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.67,0.313</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>263</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>170</v>
+        <v>102</v>
       </c>
       <c r="F53" s="6">
         <v>10</v>
       </c>
-      <c r="H53" t="s">
-        <v>171</v>
+      <c r="H53" t="str">
+        <f>VLOOKUP(C53,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.448,0.175</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="C54" t="s">
-        <v>173</v>
+        <v>264</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="F54" s="6">
         <v>10</v>
       </c>
-      <c r="H54" t="s">
-        <v>175</v>
+      <c r="H54" t="str">
+        <f>VLOOKUP(C54,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.475,0.438</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>195</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>265</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="F55" s="6">
         <v>10</v>
       </c>
-      <c r="H55" t="s">
-        <v>179</v>
+      <c r="H55" t="str">
+        <f>VLOOKUP(C55,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>180</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>266</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="F56" s="6">
         <v>10</v>
       </c>
-      <c r="H56" t="s">
-        <v>183</v>
+      <c r="H56" t="str">
+        <f>VLOOKUP(C56,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>185</v>
+        <v>267</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>186</v>
+        <v>110</v>
       </c>
       <c r="F57" s="6">
         <v>10</v>
       </c>
-      <c r="H57" t="s">
-        <v>187</v>
+      <c r="H57" t="str">
+        <f>VLOOKUP(C57,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,0,0</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>233</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>205</v>
+        <v>148</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="F58" s="6">
         <v>0.3</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>209</v>
+      <c r="H58" t="str">
+        <f>VLOOKUP(C58,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.5,0</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>234</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>206</v>
+        <v>149</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>203</v>
+        <v>124</v>
       </c>
       <c r="F59" s="6">
         <v>0.3</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>210</v>
+      <c r="H59" t="str">
+        <f>VLOOKUP(C59,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.5,0</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>235</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>207</v>
+        <v>150</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="F60" s="6">
         <v>0.6</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>211</v>
+      <c r="H60" t="str">
+        <f>VLOOKUP(C60,[1]工具!$A:$G,7,FALSE)</f>
+        <v>0,1.5,0</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>208</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>237</v>
+        <v>152</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="F62" s="6">
         <v>10</v>
       </c>
       <c r="H62" s="8" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="F63" s="6">
         <v>10</v>
       </c>
       <c r="H63" s="8" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="K63" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="12" t="s">
-        <v>303</v>
+        <v>218</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>302</v>
+        <v>217</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="F64">
         <v>3</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="L64" s="8"/>
     </row>
     <row r="65" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>307</v>
+        <v>222</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>306</v>
+        <v>221</v>
       </c>
       <c r="F65" s="6">
         <v>10</v>
       </c>
       <c r="H65" s="8" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="K65" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
-        <v>309</v>
+        <v>224</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>310</v>
+        <v>225</v>
       </c>
       <c r="F66" s="6">
         <v>10</v>
       </c>
       <c r="H66" s="8" t="s">
-        <v>308</v>
+        <v>223</v>
       </c>
       <c r="K66" s="11" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="13" t="s">
-        <v>312</v>
+        <v>227</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>311</v>
+        <v>226</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>313</v>
+        <v>228</v>
       </c>
       <c r="F67" s="6">
         <v>15</v>
       </c>
       <c r="H67" s="8"/>
       <c r="K67" s="8" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="13" t="s">
-        <v>314</v>
+        <v>229</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>316</v>
+        <v>231</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>315</v>
+        <v>230</v>
       </c>
       <c r="F68" s="6">
         <v>10</v>
       </c>
       <c r="H68" s="8" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="13" t="s">
-        <v>318</v>
+        <v>233</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>320</v>
+        <v>235</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>317</v>
+        <v>232</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>192</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3194,7 +5183,7 @@
       <c r="I1" s="15"/>
       <c r="J1" s="16"/>
       <c r="K1" s="9" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -3213,10 +5202,10 @@
         <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>292</v>
+        <v>207</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>290</v>
+        <v>205</v>
       </c>
       <c r="K2" s="7"/>
     </row>
@@ -3234,7 +5223,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>11</v>
@@ -3246,7 +5235,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="19"/>
       <c r="K3" s="10" t="s">
-        <v>189</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3295,7 +5284,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>291</v>
+        <v>206</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>24</v>
@@ -3303,209 +5292,209 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>254</v>
+        <v>169</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>263</v>
+        <v>178</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>298</v>
+        <v>213</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>299</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>266</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>256</v>
+        <v>171</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>268</v>
+        <v>183</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>269</v>
+        <v>184</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>270</v>
+        <v>185</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>271</v>
+        <v>186</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>272</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>199</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>259</v>
+        <v>174</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>274</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>275</v>
+        <v>190</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>276</v>
+        <v>191</v>
       </c>
       <c r="E12" t="s">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>261</v>
+        <v>176</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>278</v>
+        <v>193</v>
       </c>
       <c r="E13" t="s">
-        <v>287</v>
+        <v>202</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="E14" t="s">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>301</v>
+        <v>216</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>289</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3516,25 +5505,25 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
-        <v>293</v>
+        <v>208</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="E16" t="s">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
@@ -3542,22 +5531,22 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
-        <v>242</v>
+        <v>157</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>296</v>
+        <v>211</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -3567,85 +5556,85 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="12" t="s">
-        <v>243</v>
+        <v>158</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>252</v>
+        <v>167</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>297</v>
+        <v>212</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>300</v>
+        <v>215</v>
       </c>
       <c r="L20" s="8"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="12" t="s">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="L22" s="8"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="12" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="F24">
         <v>10</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="L24" s="8"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="s">
-        <v>251</v>
+        <v>166</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>244</v>
+        <v>159</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="F26">
         <v>10</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>247</v>
+        <v>162</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="L26" s="8"/>
     </row>
